--- a/public/tmpfile.xlsx
+++ b/public/tmpfile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="390">
   <si>
     <t>Утверждаю
 Управляющий
@@ -41,54 +41,1217 @@
     <t>Цена услуги (руб.)</t>
   </si>
   <si>
-    <t>Функциональная диагностика</t>
-  </si>
-  <si>
-    <t>300-005</t>
-  </si>
-  <si>
-    <t>А05.10.006</t>
-  </si>
-  <si>
-    <t>Электрокардиография (ЭКГ)  с клинической интерпретацией
-(описанием и расшифровкой)</t>
-  </si>
-  <si>
-    <t>1390</t>
-  </si>
-  <si>
-    <t>300-015</t>
-  </si>
-  <si>
-    <t>A05.10.008</t>
-  </si>
-  <si>
-    <t>Суточное мониторирование ЭКГ по Холтеру</t>
-  </si>
-  <si>
-    <t>3120</t>
-  </si>
-  <si>
-    <t>300-025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A05.10.008 </t>
-  </si>
-  <si>
-    <t>Холтеровское мониторирование сердечного ритма и артериального
-давления</t>
-  </si>
-  <si>
-    <t>4850</t>
-  </si>
-  <si>
-    <t>300-030</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A05.10.008 </t>
-  </si>
-  <si>
-    <t>Холтеровское мониторирование артериального давления</t>
+    <t>Ультразвуковая диагностика</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>УЗИ  желез</t>
+  </si>
+  <si>
+    <t>200-005</t>
+  </si>
+  <si>
+    <t>А04.07.002</t>
+  </si>
+  <si>
+    <t>УЗИ слюнных желез</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>200-010</t>
+  </si>
+  <si>
+    <t>А04.22.001</t>
+  </si>
+  <si>
+    <t>УЗИ щитовидной железы с ЦДК</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>200-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.20.002 </t>
+  </si>
+  <si>
+    <t>УЗИ молочных желез и лимфатических узлов</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>УЗИ органов брюшной полости и забрюшинного пространства</t>
+  </si>
+  <si>
+    <t>205-005</t>
+  </si>
+  <si>
+    <t>А04.16.001</t>
+  </si>
+  <si>
+    <t>УЗИ органов брюшной полости (печень, поджелудочная железа,
+желчный пузырь, селезенка)</t>
+  </si>
+  <si>
+    <t>205-010</t>
+  </si>
+  <si>
+    <t>УЗИ органов брюшной полости с определением функций желчного
+пузыря</t>
+  </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>205-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.28.001 </t>
+  </si>
+  <si>
+    <t>УЗИ почек и надпочечников</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>205-020</t>
+  </si>
+  <si>
+    <t>УЗИ органов брюшной полости (печень, поджелудочная железа,
+желчный пузырь, селезенка) и почек</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>205-025</t>
+  </si>
+  <si>
+    <t>А04.28.002.001</t>
+  </si>
+  <si>
+    <t>Узи почек</t>
+  </si>
+  <si>
+    <t>205-030</t>
+  </si>
+  <si>
+    <t>УЗИ почек и мочевого пузыря</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>УЗИ мягких тканей и лимфатических узлов</t>
+  </si>
+  <si>
+    <t>210-005</t>
+  </si>
+  <si>
+    <t>А04.06.002</t>
+  </si>
+  <si>
+    <t>УЗИ лимфатических узлов (1 группа)</t>
+  </si>
+  <si>
+    <t>210-010</t>
+  </si>
+  <si>
+    <t>УЗИ всех поверхностных лимфоузлов (шейные, подключичные,
+надключичные, подмышечные, межреберные, паховые)</t>
+  </si>
+  <si>
+    <t>3230</t>
+  </si>
+  <si>
+    <t>210-015</t>
+  </si>
+  <si>
+    <t>А04.01.001</t>
+  </si>
+  <si>
+    <t>УЗИ мягких тканей</t>
+  </si>
+  <si>
+    <t>210-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.08.001 </t>
+  </si>
+  <si>
+    <t>УЗИ придаточных пазух носа</t>
+  </si>
+  <si>
+    <t>210-025</t>
+  </si>
+  <si>
+    <t>А.04.09.002</t>
+  </si>
+  <si>
+    <t>УЗИ легких и плевральной полости</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>УЗИ органов малого таза и наружных половых органов</t>
+  </si>
+  <si>
+    <t>215-005</t>
+  </si>
+  <si>
+    <t>А04.28.002.003</t>
+  </si>
+  <si>
+    <t>УЗИ мочевого пузыря</t>
+  </si>
+  <si>
+    <t>215-010</t>
+  </si>
+  <si>
+    <t>А04.28.002.005</t>
+  </si>
+  <si>
+    <t>УЗИ остаточной мочи</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>215-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В03.052.001 </t>
+  </si>
+  <si>
+    <t>УЗИ почек, мочевого пузыря и предстательной железы (ТРУЗИ)</t>
+  </si>
+  <si>
+    <t>2640</t>
+  </si>
+  <si>
+    <t>215-020</t>
+  </si>
+  <si>
+    <t>А04.30.010</t>
+  </si>
+  <si>
+    <t>УЗИ органов малого таза у женщин (матка, придатки, мочевой
+пузырь) трансабдоминально</t>
+  </si>
+  <si>
+    <t>215-025</t>
+  </si>
+  <si>
+    <t>УЗИ органов малого таза у женщин трансвагинально</t>
+  </si>
+  <si>
+    <t>215-030</t>
+  </si>
+  <si>
+    <t>УЗИ органов малого таза у женщин (2 позиции: через переднюю
+брюшную стенку и  трансвагинально)</t>
+  </si>
+  <si>
+    <t>2530</t>
+  </si>
+  <si>
+    <t>215-035</t>
+  </si>
+  <si>
+    <t>А04.20.003</t>
+  </si>
+  <si>
+    <t>Ультразвуковой мониторинг фолликулов</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>215-040</t>
+  </si>
+  <si>
+    <t>УЗИ органов малого таза у женщин и дуплексное сканирование
+сосудов малого таза</t>
+  </si>
+  <si>
+    <t>3960</t>
+  </si>
+  <si>
+    <t>215-045</t>
+  </si>
+  <si>
+    <t>УЗИ органов малого таза у мужчин (простата, мочевой пузырь,
+определение остаточной мочи) трансабдоминально</t>
+  </si>
+  <si>
+    <t>215-050</t>
+  </si>
+  <si>
+    <t>А04.28.003</t>
+  </si>
+  <si>
+    <t>УЗИ органов мошонки</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>215-055</t>
+  </si>
+  <si>
+    <t>УЗИ органов мошонки с исследованием кровотока (проба
+Вальсальвы)</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>215-060</t>
+  </si>
+  <si>
+    <t>А04.21.001</t>
+  </si>
+  <si>
+    <t>УЗИ предстательной железы (трансабдоминально)</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>215-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.21.001.001 </t>
+  </si>
+  <si>
+    <t>УЗИ предстательной железы (ТРУЗИ-трансректальное)</t>
+  </si>
+  <si>
+    <t>215-070</t>
+  </si>
+  <si>
+    <t>УЗИ предстательной железы (ТРУЗИ) и мочевого пузыря с
+определением остаточного объема мочи</t>
+  </si>
+  <si>
+    <t>3810</t>
+  </si>
+  <si>
+    <t>УЗИ при беременности</t>
+  </si>
+  <si>
+    <t>220-005</t>
+  </si>
+  <si>
+    <t>А04.30.001.001</t>
+  </si>
+  <si>
+    <t>УЗИ до 12 недель беременности</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>220-010</t>
+  </si>
+  <si>
+    <t>А04.30.001.002</t>
+  </si>
+  <si>
+    <t>УЗИ после 12 недель беременности</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>220-015</t>
+  </si>
+  <si>
+    <t>А04.30.001.007</t>
+  </si>
+  <si>
+    <t>Фетометрия с доплер-сканированием сосудов в третьем триместре
+беременности</t>
+  </si>
+  <si>
+    <t>УЗИ суставов</t>
+  </si>
+  <si>
+    <t>225-005</t>
+  </si>
+  <si>
+    <t>А04.04.001.001</t>
+  </si>
+  <si>
+    <t>УЗИ тазобедренных суставов (два сустава)</t>
+  </si>
+  <si>
+    <t>225-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.04.001 </t>
+  </si>
+  <si>
+    <t>УЗИ коленных суставов (два сустава)</t>
+  </si>
+  <si>
+    <t>225-015</t>
+  </si>
+  <si>
+    <t>УЗИ плечевых суставов (два сустава)</t>
+  </si>
+  <si>
+    <t>225-020</t>
+  </si>
+  <si>
+    <t>УЗИ суставов стоп, голеностопных суставов (на двух конечностях)</t>
+  </si>
+  <si>
+    <t>225-025</t>
+  </si>
+  <si>
+    <t>УЗИ локтевых суставов (два сустава)</t>
+  </si>
+  <si>
+    <t>225-030</t>
+  </si>
+  <si>
+    <t>УЗИ суставов кисти, лучезапястных суставов (на двух конечностях)</t>
+  </si>
+  <si>
+    <t>Комплексные исследования</t>
+  </si>
+  <si>
+    <t>230-005</t>
+  </si>
+  <si>
+    <t>В03.052.001</t>
+  </si>
+  <si>
+    <t>Комплексное УЗИ-обследование женщин (щитовидная железа,
+молочные железы, органы брюшной полости и забрюшинного
+пространства, мочевой пузырь, органы малого таза)</t>
+  </si>
+  <si>
+    <t>6350</t>
+  </si>
+  <si>
+    <t>230-010</t>
+  </si>
+  <si>
+    <t>Комплексное УЗИ-обследование мужчин (щитовидная железа,
+органы брюшной полости и забрюшинного пространства, мочевой
+пузырь, предстательная железа)</t>
+  </si>
+  <si>
+    <t>230-015</t>
+  </si>
+  <si>
+    <t>Комплексное УЗИ-обследование женщин №1 (молочная железа,
+малый таз 1или 2 датчика)</t>
+  </si>
+  <si>
+    <t>230-020</t>
+  </si>
+  <si>
+    <t>Комплексное УЗИ-обследование женщин №2 (молочная железа,
+малый таз 1или 2 датчика, щитовидная железа)</t>
+  </si>
+  <si>
+    <t>5080</t>
+  </si>
+  <si>
+    <t>230-025</t>
+  </si>
+  <si>
+    <t>Комплексное УЗИ-обследование у мужчин №1 (мочевой пузырь с
+определением остаточной мочи, предстательная железа, )</t>
+  </si>
+  <si>
+    <t>Триплексные исследования брахио-цефальных артерий (БЦА)</t>
+  </si>
+  <si>
+    <t>235-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.12.001.006 </t>
+  </si>
+  <si>
+    <t>Триплексное сканирование сосудов головы</t>
+  </si>
+  <si>
+    <t>235-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.12.005.003 </t>
+  </si>
+  <si>
+    <t>Триплексное сканирование сосудов шеи</t>
+  </si>
+  <si>
+    <t>235-015</t>
+  </si>
+  <si>
+    <t>А04.12.005.005</t>
+  </si>
+  <si>
+    <t>Триплексное сканирование сосудов головы и шеи</t>
+  </si>
+  <si>
+    <t>4620</t>
+  </si>
+  <si>
+    <t>Триплексные исследования сосудов брюшной полости и
+забрюшинного пространства</t>
+  </si>
+  <si>
+    <t>240-005</t>
+  </si>
+  <si>
+    <t>А04.12.001.002</t>
+  </si>
+  <si>
+    <t>Триплексное сканирование почечных артерий и вен</t>
+  </si>
+  <si>
+    <t>2160</t>
+  </si>
+  <si>
+    <t>240-010</t>
+  </si>
+  <si>
+    <t>Триплексное сканирование почечных сосудов с ортостатической
+пробой</t>
+  </si>
+  <si>
+    <t>240-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.12.012 </t>
+  </si>
+  <si>
+    <t>Триплексное сканирование сосудов портальной системы</t>
+  </si>
+  <si>
+    <t>240-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.12.003 </t>
+  </si>
+  <si>
+    <t>Триплексное сканирование аорты</t>
+  </si>
+  <si>
+    <t>240-025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.12.015 </t>
+  </si>
+  <si>
+    <t>Триплексное сканирование нижней полой вены</t>
+  </si>
+  <si>
+    <t>240-030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.12.025 </t>
+  </si>
+  <si>
+    <t>Триплексное сканирование брюшной аорты и мезотериальных
+сосудов</t>
+  </si>
+  <si>
+    <t>3410</t>
+  </si>
+  <si>
+    <t>Триплексные исследования сосудов малого таза</t>
+  </si>
+  <si>
+    <t>245-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.30.010 </t>
+  </si>
+  <si>
+    <t>Триплексное сканирование сосудов малого таза с ЦДК</t>
+  </si>
+  <si>
+    <t>Триплексные исследования сосудов наружных половых органов</t>
+  </si>
+  <si>
+    <t>250-005</t>
+  </si>
+  <si>
+    <t>A04.21.002</t>
+  </si>
+  <si>
+    <t>Триплексное сканирование сосудов полового члена</t>
+  </si>
+  <si>
+    <t>Триплексные исследования сосудов конечностей</t>
+  </si>
+  <si>
+    <t>255-003</t>
+  </si>
+  <si>
+    <t>A04.12.001</t>
+  </si>
+  <si>
+    <t>Триплексное сканирование артерий верхних конечностей</t>
+  </si>
+  <si>
+    <t>2460</t>
+  </si>
+  <si>
+    <t>255-005</t>
+  </si>
+  <si>
+    <t>A04.12.002.003</t>
+  </si>
+  <si>
+    <t>Триплексное сканирование вен верхних конечностей</t>
+  </si>
+  <si>
+    <t>255-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.12.002 </t>
+  </si>
+  <si>
+    <t>Триплексное сканирование артерий и вен верхних конечностей</t>
+  </si>
+  <si>
+    <t>3990</t>
+  </si>
+  <si>
+    <t>255-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А04.12.002.001 </t>
+  </si>
+  <si>
+    <t>Триплексное сканирование артерий нижних конечностей</t>
+  </si>
+  <si>
+    <t>255-020</t>
+  </si>
+  <si>
+    <t>Триплексное сканирование вен нижних конечностей</t>
+  </si>
+  <si>
+    <t>255-025</t>
+  </si>
+  <si>
+    <t>Триплексное сканирование артерий и вен нижних конечностей</t>
+  </si>
+  <si>
+    <t>ЭхоКГ</t>
+  </si>
+  <si>
+    <t>260-005</t>
+  </si>
+  <si>
+    <t>А04.10.002</t>
+  </si>
+  <si>
+    <t>Эходоплерокардиография (ЭхоКГ)</t>
+  </si>
+  <si>
+    <t>2420</t>
+  </si>
+  <si>
+    <t>Дополнительные услуги:</t>
+  </si>
+  <si>
+    <t>265-005</t>
+  </si>
+  <si>
+    <t>Запись результатов исследования на диск</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>Экспертное узи на аппарате LOGIQ E9</t>
+  </si>
+  <si>
+    <t>270-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A04.30.009</t>
+  </si>
+  <si>
+    <t>УЗИ-навигация при биопсии</t>
+  </si>
+  <si>
+    <t>270-001*</t>
+  </si>
+  <si>
+    <t>УЗИ + навигация при биопсии</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>270-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04.22.001.001 </t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование щитовидной железы с
+эластографией</t>
+  </si>
+  <si>
+    <t>3630</t>
+  </si>
+  <si>
+    <t>270-002*</t>
+  </si>
+  <si>
+    <t>4700</t>
+  </si>
+  <si>
+    <t>270-003</t>
+  </si>
+  <si>
+    <t>A04.20.002.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспертное ультразвуковое исследование молочных желёз с
+регионарными лимфатическими узлами с эластографией </t>
+  </si>
+  <si>
+    <t>4180</t>
+  </si>
+  <si>
+    <t>270-003*</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование молочных желез с
+регионарными лимфатическими узлами с эластографией</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>270-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспертное ультразвуковое исследование молочных желёз с
+регионарными лимфатическими узлами с ЦДК </t>
+  </si>
+  <si>
+    <t>2860</t>
+  </si>
+  <si>
+    <t>270-004*</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование молочных желез с
+регионарными лимфатическими узлами с ЦДК</t>
+  </si>
+  <si>
+    <t>4200</t>
+  </si>
+  <si>
+    <t>270-005</t>
+  </si>
+  <si>
+    <t>A04.07.002</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование слюнных желез</t>
+  </si>
+  <si>
+    <t>270-005*</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>270-006</t>
+  </si>
+  <si>
+    <t>A04.01.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспертное ультразвуковое исследование мягких тканей </t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>270-006*</t>
+  </si>
+  <si>
+    <t>Экспертное укльтразвуковое исследование мягких тканей</t>
+  </si>
+  <si>
+    <t>270-007</t>
+  </si>
+  <si>
+    <t>A04.01.001.001</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование мягких тканей (одна
+область) с эластографией</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>270-007*</t>
+  </si>
+  <si>
+    <t>Ультразвуковое исследование мягких тканей(одна область) с
+эластографией</t>
+  </si>
+  <si>
+    <t>3400</t>
+  </si>
+  <si>
+    <t>270-008</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование мягких тканей при грыжах</t>
+  </si>
+  <si>
+    <t>270-008*</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>270-009</t>
+  </si>
+  <si>
+    <t>A04.22.001</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование щитовидной железы с
+ЦДК</t>
+  </si>
+  <si>
+    <t>270-009*</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>270-010</t>
+  </si>
+  <si>
+    <t>A04.06.002</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование лимфатических узлов  
+(одна область)</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>270-010*</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование лимфатических узлов
+(одна область)</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>УЗИ брюшной полости</t>
+  </si>
+  <si>
+    <t>270-015</t>
+  </si>
+  <si>
+    <t>A04.16.001</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов брюшной полости
+(печень, желчный пузырь, поджелудочная железа, селезенка)</t>
+  </si>
+  <si>
+    <t>270-015*</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>270-016</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов брюшной полости
+и почек (печень, желчный пузырь, поджелудочная железа, 
+селезенка, почки)</t>
+  </si>
+  <si>
+    <t>3080</t>
+  </si>
+  <si>
+    <t>270-016*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспертное ультразвуковое исследование органов брюшной полости
+и почек (печень, желчный пузырь, поджелудочная железа,селезенка,
+почки) </t>
+  </si>
+  <si>
+    <t>4300</t>
+  </si>
+  <si>
+    <t>270-017</t>
+  </si>
+  <si>
+    <t>A04.30.003</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование забрюшинного
+пространства (почки, забрюшинные лимфоузлы)</t>
+  </si>
+  <si>
+    <t>270-017*</t>
+  </si>
+  <si>
+    <t>270-018</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование печени с желчным
+пузырем</t>
+  </si>
+  <si>
+    <t>270-018*</t>
+  </si>
+  <si>
+    <t>270-019</t>
+  </si>
+  <si>
+    <t>A04.28.001</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование почек и мочевого пузыря</t>
+  </si>
+  <si>
+    <t>270-019*</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>270-020</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование  почек с допплеровским
+исследованием почечных сосудов</t>
+  </si>
+  <si>
+    <t>3700</t>
+  </si>
+  <si>
+    <t>270-020*</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование почек с доплеровским
+исследование почечных сосудов</t>
+  </si>
+  <si>
+    <t>270-021</t>
+  </si>
+  <si>
+    <t>A04.28.002.005</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование почек, предстательной
+железы  и мочевого пузыря с определением остаточной мочи</t>
+  </si>
+  <si>
+    <t>270-021*</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование почек, предстательной
+железы и мочевого пузыря с определение остаточной мочи</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
+    <t>270-022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A04.28.002.005 </t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование мочевого пузыря с
+определением остаточной мочи</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>270-022*</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>270-023</t>
+  </si>
+  <si>
+    <t>A04.14.002</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование желчного пузыря с
+опредением его функции</t>
+  </si>
+  <si>
+    <t>270-023*</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование желчного пузыря с
+определением его функции</t>
+  </si>
+  <si>
+    <t>270-024</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование почек и надпочечников</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>270-024*</t>
+  </si>
+  <si>
+    <t>270-025</t>
+  </si>
+  <si>
+    <t>А04.06.001.001.</t>
+  </si>
+  <si>
+    <t>Эластография печени</t>
+  </si>
+  <si>
+    <t>270-026</t>
+  </si>
+  <si>
+    <t>Брюшная полость с эластографией</t>
+  </si>
+  <si>
+    <t>4550</t>
+  </si>
+  <si>
+    <t>УЗИ малого таза</t>
+  </si>
+  <si>
+    <t>270-030</t>
+  </si>
+  <si>
+    <t>A04.12.022</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов малого таза с
+доплерографией сосудов</t>
+  </si>
+  <si>
+    <t>270-030*</t>
+  </si>
+  <si>
+    <t>270-031</t>
+  </si>
+  <si>
+    <t>A04.30.010</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов малого таза
+(трансабдоминально+трансвагинально)</t>
+  </si>
+  <si>
+    <t>270-031*</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов малого таза
+(трансабдоминально+ трансвагинально)</t>
+  </si>
+  <si>
+    <t>270-032</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов малого таза
+(трансабдоминально)</t>
+  </si>
+  <si>
+    <t>270-032*</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>270-033</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов малого таза
+(трансвагинально)</t>
+  </si>
+  <si>
+    <t>270-033*</t>
+  </si>
+  <si>
+    <t>270-034</t>
+  </si>
+  <si>
+    <t>A04.21.001</t>
+  </si>
+  <si>
+    <t>Экспертное УЗИ малого таза у мужчин (предстательная железа с
+оценкой паренхиматозного кровотока и мочевой пузырь с
+определением остаточной мочи)</t>
+  </si>
+  <si>
+    <t>270-034*</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование малого таза у мужчин
+(предстательная железа с оценкой паренхиматозного кровотока и
+мочевой пузырь с определением остаточной мочи)</t>
+  </si>
+  <si>
+    <t>270-036</t>
+  </si>
+  <si>
+    <t>A04.21.001.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспертное трансректальное исследование предстательной железы </t>
+  </si>
+  <si>
+    <t>270-036*</t>
+  </si>
+  <si>
+    <t>Экспертное трансректальное исследование предстательной железы</t>
+  </si>
+  <si>
+    <t>270-037</t>
+  </si>
+  <si>
+    <t>Экспертное трансректальное исследование (ТРУЗИ) предстательной
+железы с эластографией</t>
+  </si>
+  <si>
+    <t>4070</t>
+  </si>
+  <si>
+    <t>270-037*</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>270-038</t>
+  </si>
+  <si>
+    <t>A04.28.003</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов мошонки с
+эластографией</t>
+  </si>
+  <si>
+    <t>270-038*</t>
+  </si>
+  <si>
+    <t>5300</t>
+  </si>
+  <si>
+    <t>270-039</t>
+  </si>
+  <si>
+    <t>A04.12.008</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов мошонки с ЦДК</t>
+  </si>
+  <si>
+    <t>270-039*</t>
+  </si>
+  <si>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>270-040</t>
+  </si>
+  <si>
+    <t>Экспертное ультразвуковое исследование органов малого таза с
+эластографией</t>
+  </si>
+  <si>
+    <t>270-040*</t>
+  </si>
+  <si>
+    <t>270-041</t>
+  </si>
+  <si>
+    <t>Ультразвуковое исследование органов малого таза на ранних сроках
+беременности  до 11 недель</t>
+  </si>
+  <si>
+    <t>270-041*</t>
+  </si>
+  <si>
+    <t>Ультразвуковое исследование органов малого таза на ранних сроках
+беременности до 11 недель</t>
+  </si>
+  <si>
+    <t>270-043</t>
+  </si>
+  <si>
+    <t>Фолликулометрия (Наблюдение с использованием УЗИ за
+фолликулом в течение одного цикла.Первичное исследования)</t>
+  </si>
+  <si>
+    <t>270-044</t>
+  </si>
+  <si>
+    <t>Фолликулометрия (Повторное исследование)</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>270-043*</t>
+  </si>
+  <si>
+    <t>Фолликулометрия (наблюдение с использованием УЗИ за
+фолликулом в течение одного цикла. Первичное  исследования)</t>
+  </si>
+  <si>
+    <t>270-044*</t>
+  </si>
+  <si>
+    <t>270-045</t>
+  </si>
+  <si>
+    <t>Эластография</t>
+  </si>
+  <si>
+    <t>1760</t>
+  </si>
+  <si>
+    <t>270-045*</t>
+  </si>
+  <si>
+    <t>2400</t>
   </si>
 </sst>
 </file>
@@ -597,11 +1760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ee7d12af-6c12-4983-9e53-f1703d7b2927}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959eb101-1340-403c-aed9-1b6e9c0ff1ec}">
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0" topLeftCell="A136">
+      <selection pane="topLeft" activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -651,62 +1814,3411 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
+    <row r="5" spans="1:4" ht="13.7" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.7" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.7" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="24" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="24" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="24" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="24" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="24" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="24" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="24" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="24" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="24" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="24" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="24" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="24" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="24" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="24" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="24" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="24" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="24" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="24" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="24" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="24" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="24" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="24" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="24" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="24" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="24" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="24" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="24" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="24" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="24" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="24" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="24" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="24" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="24" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="24" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="24" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="24" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="24" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="24" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="24" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="24" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="24" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="24" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="24" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="24" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="24" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="24" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="24" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="24" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="24" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="24" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="24" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="13.7" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" ht="13.7" customHeight="1"/>
+    <row r="154" ht="24" customHeight="1"/>
+    <row r="155" ht="13.7" customHeight="1"/>
+    <row r="156" ht="24" customHeight="1"/>
+    <row r="157" ht="13.7" customHeight="1"/>
+    <row r="158" ht="13.7" customHeight="1"/>
+    <row r="159" ht="35.1" customHeight="1"/>
+    <row r="160" ht="13.7" customHeight="1"/>
+    <row r="161" ht="13.7" customHeight="1"/>
+    <row r="162" ht="13.7" customHeight="1"/>
+    <row r="163" ht="13.7" customHeight="1"/>
+    <row r="164" ht="13.7" customHeight="1"/>
+    <row r="165" ht="13.7" customHeight="1"/>
+    <row r="166" ht="13.7" customHeight="1"/>
+    <row r="167" ht="13.7" customHeight="1"/>
+    <row r="168" ht="13.7" customHeight="1"/>
+    <row r="169" ht="13.7" customHeight="1"/>
+    <row r="170" ht="13.7" customHeight="1"/>
+    <row r="171" ht="13.7" customHeight="1"/>
+    <row r="172" ht="13.7" customHeight="1"/>
+    <row r="173" ht="13.7" customHeight="1"/>
+    <row r="174" ht="13.7" customHeight="1"/>
+    <row r="175" ht="13.7" customHeight="1"/>
+    <row r="176" ht="24" customHeight="1"/>
+    <row r="177" ht="13.7" customHeight="1"/>
+    <row r="178" ht="13.7" customHeight="1"/>
+    <row r="179" ht="24" customHeight="1"/>
+    <row r="180" ht="24" customHeight="1"/>
+    <row r="181" ht="13.7" customHeight="1"/>
+    <row r="182" ht="13.7" customHeight="1"/>
+    <row r="183" ht="13.7" customHeight="1"/>
+    <row r="184" ht="13.7" customHeight="1"/>
+    <row r="185" ht="13.7" customHeight="1"/>
+    <row r="186" ht="24" customHeight="1"/>
+    <row r="187" ht="24" customHeight="1"/>
+    <row r="188" ht="24" customHeight="1"/>
+    <row r="189" ht="35.1" customHeight="1"/>
+    <row r="190" ht="13.7" customHeight="1"/>
+    <row r="191" ht="13.7" customHeight="1"/>
+    <row r="192" ht="13.7" customHeight="1"/>
+    <row r="193" ht="13.7" customHeight="1"/>
+    <row r="194" ht="13.7" customHeight="1"/>
+    <row r="195" ht="13.7" customHeight="1"/>
+    <row r="196" ht="13.7" customHeight="1"/>
+    <row r="197" ht="24" customHeight="1"/>
+    <row r="198" ht="24" customHeight="1"/>
+    <row r="199" ht="13.7" customHeight="1"/>
+    <row r="200" ht="13.7" customHeight="1"/>
+    <row r="201" ht="24" customHeight="1"/>
+    <row r="202" ht="24" customHeight="1"/>
+    <row r="203" ht="24" customHeight="1"/>
+    <row r="204" ht="13.7" customHeight="1"/>
+    <row r="205" ht="13.7" customHeight="1"/>
+    <row r="206" ht="13.7" customHeight="1"/>
+    <row r="207" ht="24" customHeight="1"/>
+    <row r="208" ht="13.7" customHeight="1"/>
+    <row r="209" ht="13.7" customHeight="1"/>
+    <row r="210" ht="13.7" customHeight="1"/>
+    <row r="211" ht="24" customHeight="1"/>
+    <row r="212" ht="13.7" customHeight="1"/>
+    <row r="213" ht="13.7" customHeight="1"/>
+    <row r="214" ht="24" customHeight="1"/>
+    <row r="215" ht="24" customHeight="1"/>
+    <row r="216" ht="13.7" customHeight="1"/>
+    <row r="217" ht="13.7" customHeight="1"/>
+    <row r="218" ht="13.7" customHeight="1"/>
+    <row r="219" ht="13.7" customHeight="1"/>
+    <row r="220" ht="13.7" customHeight="1"/>
+    <row r="221" ht="13.7" customHeight="1"/>
+    <row r="222" ht="13.7" customHeight="1"/>
+    <row r="223" ht="24" customHeight="1"/>
+    <row r="224" ht="24" customHeight="1"/>
+    <row r="225" ht="13.7" customHeight="1"/>
+    <row r="226" ht="13.7" customHeight="1"/>
+    <row r="227" ht="13.7" customHeight="1"/>
+    <row r="228" ht="13.7" customHeight="1"/>
+    <row r="229" ht="13.7" customHeight="1"/>
+    <row r="230" ht="13.7" customHeight="1"/>
+    <row r="231" ht="13.7" customHeight="1"/>
+    <row r="232" ht="13.7" customHeight="1"/>
+    <row r="233" ht="13.7" customHeight="1"/>
+    <row r="234" ht="13.7" customHeight="1"/>
+    <row r="235" ht="13.7" customHeight="1"/>
+    <row r="236" ht="13.7" customHeight="1"/>
+    <row r="237" ht="24" customHeight="1"/>
+    <row r="238" ht="13.7" customHeight="1"/>
+    <row r="239" ht="13.7" customHeight="1"/>
+    <row r="240" ht="13.7" customHeight="1"/>
+    <row r="241" ht="13.7" customHeight="1"/>
+    <row r="242" ht="13.7" customHeight="1"/>
+    <row r="243" ht="13.7" customHeight="1"/>
+    <row r="244" ht="13.7" customHeight="1"/>
+    <row r="245" ht="13.7" customHeight="1"/>
+    <row r="246" ht="13.7" customHeight="1"/>
+    <row r="247" ht="13.7" customHeight="1"/>
+    <row r="248" ht="13.7" customHeight="1"/>
+    <row r="249" ht="13.7" customHeight="1"/>
+    <row r="250" ht="13.7" customHeight="1"/>
+    <row r="251" ht="13.7" customHeight="1"/>
+    <row r="252" ht="13.7" customHeight="1"/>
+    <row r="253" ht="13.7" customHeight="1"/>
+    <row r="254" ht="24" customHeight="1"/>
+    <row r="255" ht="13.7" customHeight="1"/>
+    <row r="256" ht="13.7" customHeight="1"/>
+    <row r="257" ht="13.7" customHeight="1"/>
+    <row r="258" ht="13.7" customHeight="1"/>
+    <row r="259" ht="24" customHeight="1"/>
+    <row r="260" ht="24" customHeight="1"/>
+    <row r="261" ht="24" customHeight="1"/>
+    <row r="262" ht="13.7" customHeight="1"/>
+    <row r="263" ht="13.7" customHeight="1"/>
+    <row r="264" ht="24" customHeight="1"/>
+    <row r="265" ht="13.7" customHeight="1"/>
+    <row r="266" ht="24" customHeight="1"/>
+    <row r="267" ht="13.7" customHeight="1"/>
+    <row r="268" ht="13.7" customHeight="1"/>
+    <row r="269" ht="13.7" customHeight="1"/>
+    <row r="270" ht="24" customHeight="1"/>
+    <row r="271" ht="13.7" customHeight="1"/>
+    <row r="272" ht="13.7" customHeight="1"/>
+    <row r="273" ht="13.7" customHeight="1"/>
+    <row r="274" ht="13.7" customHeight="1"/>
+    <row r="275" ht="13.7" customHeight="1"/>
+    <row r="276" ht="24" customHeight="1"/>
+    <row r="277" ht="13.7" customHeight="1"/>
+    <row r="278" ht="13.7" customHeight="1"/>
+    <row r="279" ht="24" customHeight="1"/>
+    <row r="280" ht="13.7" customHeight="1"/>
+    <row r="281" ht="24" customHeight="1"/>
+    <row r="282" ht="24" customHeight="1"/>
+    <row r="283" ht="13.7" customHeight="1"/>
+    <row r="284" ht="24" customHeight="1"/>
+    <row r="285" ht="13.7" customHeight="1"/>
+    <row r="286" ht="13.7" customHeight="1"/>
+    <row r="287" ht="24" customHeight="1"/>
+    <row r="288" ht="24" customHeight="1"/>
+    <row r="289" ht="24" customHeight="1"/>
+    <row r="290" ht="13.7" customHeight="1"/>
+    <row r="291" ht="13.7" customHeight="1"/>
+    <row r="292" ht="13.7" customHeight="1"/>
+    <row r="293" ht="13.7" customHeight="1"/>
+    <row r="294" ht="13.7" customHeight="1"/>
+    <row r="295" ht="13.7" customHeight="1"/>
+    <row r="296" ht="13.7" customHeight="1"/>
+    <row r="297" ht="24" customHeight="1"/>
+    <row r="298" ht="24" customHeight="1"/>
+    <row r="299" ht="24" customHeight="1"/>
+    <row r="300" ht="13.7" customHeight="1"/>
+    <row r="301" ht="13.7" customHeight="1"/>
+    <row r="302" ht="24" customHeight="1"/>
+    <row r="303" ht="13.7" customHeight="1"/>
+    <row r="304" ht="13.7" customHeight="1"/>
+    <row r="305" ht="13.7" customHeight="1"/>
+    <row r="306" ht="13.7" customHeight="1"/>
+    <row r="307" ht="13.7" customHeight="1"/>
+    <row r="308" ht="13.7" customHeight="1"/>
+    <row r="309" ht="13.7" customHeight="1"/>
+    <row r="310" ht="13.7" customHeight="1"/>
+    <row r="311" ht="13.7" customHeight="1"/>
+    <row r="312" ht="24" customHeight="1"/>
+    <row r="313" ht="13.7" customHeight="1"/>
+    <row r="314" ht="24" customHeight="1"/>
+    <row r="315" ht="13.7" customHeight="1"/>
+    <row r="316" ht="13.7" customHeight="1"/>
+    <row r="317" ht="13.7" customHeight="1"/>
+    <row r="318" ht="13.7" customHeight="1"/>
+    <row r="319" ht="13.7" customHeight="1"/>
+    <row r="320" ht="13.7" customHeight="1"/>
+    <row r="321" ht="13.7" customHeight="1"/>
+    <row r="322" ht="13.7" customHeight="1"/>
+    <row r="323" ht="13.7" customHeight="1"/>
+    <row r="324" ht="13.7" customHeight="1"/>
+    <row r="325" ht="13.7" customHeight="1"/>
+    <row r="326" ht="13.7" customHeight="1"/>
+    <row r="327" ht="13.7" customHeight="1"/>
+    <row r="328" ht="13.7" customHeight="1"/>
+    <row r="329" ht="13.7" customHeight="1"/>
+    <row r="330" ht="13.7" customHeight="1"/>
+    <row r="331" ht="13.7" customHeight="1"/>
+    <row r="332" ht="13.7" customHeight="1"/>
+    <row r="333" ht="13.7" customHeight="1"/>
+    <row r="334" ht="13.7" customHeight="1"/>
+    <row r="335" ht="13.7" customHeight="1"/>
+    <row r="336" ht="13.7" customHeight="1"/>
+    <row r="337" ht="13.7" customHeight="1"/>
+    <row r="338" ht="13.7" customHeight="1"/>
+    <row r="339" ht="13.7" customHeight="1"/>
+    <row r="340" ht="13.7" customHeight="1"/>
+    <row r="341" ht="13.7" customHeight="1"/>
+    <row r="342" ht="13.7" customHeight="1"/>
+    <row r="343" ht="13.7" customHeight="1"/>
+    <row r="344" ht="13.7" customHeight="1"/>
+    <row r="345" ht="13.7" customHeight="1"/>
+    <row r="346" ht="13.7" customHeight="1"/>
+    <row r="347" ht="13.7" customHeight="1"/>
+    <row r="348" ht="13.7" customHeight="1"/>
+    <row r="349" ht="13.7" customHeight="1"/>
+    <row r="350" ht="13.7" customHeight="1"/>
+    <row r="351" ht="13.7" customHeight="1"/>
+    <row r="352" ht="13.7" customHeight="1"/>
+    <row r="353" ht="13.7" customHeight="1"/>
+    <row r="354" ht="13.7" customHeight="1"/>
+    <row r="355" ht="13.7" customHeight="1"/>
+    <row r="356" ht="13.7" customHeight="1"/>
+    <row r="357" ht="13.7" customHeight="1"/>
+    <row r="358" ht="24" customHeight="1"/>
+    <row r="359" ht="13.7" customHeight="1"/>
+    <row r="360" ht="13.7" customHeight="1"/>
+    <row r="361" ht="13.7" customHeight="1"/>
+    <row r="362" ht="13.7" customHeight="1"/>
+    <row r="363" ht="13.7" customHeight="1"/>
+    <row r="364" ht="13.7" customHeight="1"/>
+    <row r="365" ht="13.7" customHeight="1"/>
+    <row r="366" ht="13.7" customHeight="1"/>
+    <row r="367" ht="13.7" customHeight="1"/>
+    <row r="368" ht="13.7" customHeight="1"/>
+    <row r="369" ht="24" customHeight="1"/>
+    <row r="370" ht="24" customHeight="1"/>
+    <row r="371" ht="24" customHeight="1"/>
+    <row r="372" ht="13.7" customHeight="1"/>
+    <row r="373" ht="13.7" customHeight="1"/>
+    <row r="374" ht="13.7" customHeight="1"/>
+    <row r="375" ht="13.7" customHeight="1"/>
+    <row r="376" ht="13.7" customHeight="1"/>
+    <row r="377" ht="13.7" customHeight="1"/>
+    <row r="378" ht="13.7" customHeight="1"/>
+    <row r="379" ht="13.7" customHeight="1"/>
+    <row r="380" ht="13.7" customHeight="1"/>
+    <row r="381" ht="13.7" customHeight="1"/>
+    <row r="382" ht="13.7" customHeight="1"/>
+    <row r="383" ht="13.7" customHeight="1"/>
+    <row r="384" ht="13.7" customHeight="1"/>
+    <row r="385" ht="13.7" customHeight="1"/>
+    <row r="386" ht="13.7" customHeight="1"/>
+    <row r="387" ht="13.7" customHeight="1"/>
+    <row r="388" ht="13.7" customHeight="1"/>
+    <row r="389" ht="13.7" customHeight="1"/>
+    <row r="390" ht="13.7" customHeight="1"/>
+    <row r="391" ht="13.7" customHeight="1"/>
+    <row r="392" ht="24" customHeight="1"/>
+    <row r="393" ht="13.7" customHeight="1"/>
+    <row r="394" ht="13.7" customHeight="1"/>
+    <row r="395" ht="13.7" customHeight="1"/>
+    <row r="396" ht="24" customHeight="1"/>
+    <row r="397" ht="13.7" customHeight="1"/>
+    <row r="398" ht="13.7" customHeight="1"/>
+    <row r="399" ht="24" customHeight="1"/>
+    <row r="400" ht="13.7" customHeight="1"/>
+    <row r="401" ht="13.7" customHeight="1"/>
+    <row r="402" ht="24" customHeight="1"/>
+    <row r="403" ht="24" customHeight="1"/>
+    <row r="404" ht="13.7" customHeight="1"/>
+    <row r="405" ht="13.7" customHeight="1"/>
+    <row r="406" ht="13.7" customHeight="1"/>
+    <row r="407" ht="13.7" customHeight="1"/>
+    <row r="408" ht="13.7" customHeight="1"/>
+    <row r="409" ht="13.7" customHeight="1"/>
+    <row r="410" ht="13.7" customHeight="1"/>
+    <row r="411" ht="24" customHeight="1"/>
+    <row r="412" ht="24" customHeight="1"/>
+    <row r="413" ht="13.7" customHeight="1"/>
+    <row r="414" ht="13.7" customHeight="1"/>
+    <row r="415" ht="13.7" customHeight="1"/>
+    <row r="416" ht="24" customHeight="1"/>
+    <row r="417" ht="13.7" customHeight="1"/>
+    <row r="418" ht="13.7" customHeight="1"/>
+    <row r="419" ht="13.7" customHeight="1"/>
+    <row r="420" ht="13.7" customHeight="1"/>
+    <row r="421" ht="13.7" customHeight="1"/>
+    <row r="422" ht="13.7" customHeight="1"/>
+    <row r="423" ht="13.7" customHeight="1"/>
+    <row r="424" ht="13.7" customHeight="1"/>
+    <row r="425" ht="13.7" customHeight="1"/>
+    <row r="426" ht="13.7" customHeight="1"/>
+    <row r="427" ht="13.7" customHeight="1"/>
+    <row r="428" ht="13.7" customHeight="1"/>
+    <row r="429" ht="13.7" customHeight="1"/>
+    <row r="430" ht="13.7" customHeight="1"/>
+    <row r="431" ht="13.7" customHeight="1"/>
+    <row r="432" ht="13.7" customHeight="1"/>
+    <row r="433" ht="13.7" customHeight="1"/>
+    <row r="434" ht="13.7" customHeight="1"/>
+    <row r="435" ht="13.7" customHeight="1"/>
+    <row r="436" ht="13.7" customHeight="1"/>
+    <row r="437" ht="13.7" customHeight="1"/>
+    <row r="438" ht="13.7" customHeight="1"/>
+    <row r="439" ht="13.7" customHeight="1"/>
+    <row r="440" ht="13.7" customHeight="1"/>
+    <row r="441" ht="13.7" customHeight="1"/>
+    <row r="442" ht="13.7" customHeight="1"/>
+    <row r="443" ht="13.7" customHeight="1"/>
+    <row r="444" ht="13.7" customHeight="1"/>
+    <row r="445" ht="13.7" customHeight="1"/>
+    <row r="446" ht="13.7" customHeight="1"/>
+    <row r="447" ht="13.7" customHeight="1"/>
+    <row r="448" ht="13.7" customHeight="1"/>
+    <row r="449" ht="35.1" customHeight="1"/>
+    <row r="450" ht="13.7" customHeight="1"/>
+    <row r="451" ht="13.7" customHeight="1"/>
+    <row r="452" ht="13.7" customHeight="1"/>
+    <row r="453" ht="24" customHeight="1"/>
+    <row r="454" ht="13.7" customHeight="1"/>
+    <row r="455" ht="13.7" customHeight="1"/>
+    <row r="456" ht="13.7" customHeight="1"/>
+    <row r="457" ht="13.7" customHeight="1"/>
+    <row r="458" ht="13.7" customHeight="1"/>
+    <row r="459" ht="13.7" customHeight="1"/>
+    <row r="460" ht="24" customHeight="1"/>
+    <row r="461" ht="13.7" customHeight="1"/>
+    <row r="462" ht="13.7" customHeight="1"/>
+    <row r="463" ht="13.7" customHeight="1"/>
+    <row r="464" ht="13.7" customHeight="1"/>
+    <row r="465" ht="24" customHeight="1"/>
+    <row r="466" ht="13.7" customHeight="1"/>
+    <row r="467" ht="24" customHeight="1"/>
+    <row r="468" ht="13.7" customHeight="1"/>
+    <row r="469" ht="13.7" customHeight="1"/>
+    <row r="470" ht="13.7" customHeight="1"/>
+    <row r="471" ht="13.7" customHeight="1"/>
+    <row r="472" ht="13.7" customHeight="1"/>
+    <row r="473" ht="13.7" customHeight="1"/>
+    <row r="474" ht="13.7" customHeight="1"/>
+    <row r="475" ht="13.7" customHeight="1"/>
+    <row r="476" ht="24" customHeight="1"/>
+    <row r="477" ht="13.7" customHeight="1"/>
+    <row r="478" ht="13.7" customHeight="1"/>
+    <row r="479" ht="13.7" customHeight="1"/>
+    <row r="480" ht="24" customHeight="1"/>
+    <row r="481" ht="13.7" customHeight="1"/>
+    <row r="482" ht="24" customHeight="1"/>
+    <row r="483" ht="24" customHeight="1"/>
+    <row r="484" ht="13.7" customHeight="1"/>
+    <row r="485" ht="24" customHeight="1"/>
+    <row r="486" ht="24" customHeight="1"/>
+    <row r="487" ht="24" customHeight="1"/>
+    <row r="488" ht="35.1" customHeight="1"/>
+    <row r="489" ht="13.7" customHeight="1"/>
+    <row r="490" ht="24" customHeight="1"/>
+    <row r="491" ht="24" customHeight="1"/>
+    <row r="492" ht="24" customHeight="1"/>
+    <row r="493" ht="13.7" customHeight="1"/>
+    <row r="494" ht="24" customHeight="1"/>
+    <row r="495" ht="24" customHeight="1"/>
+    <row r="496" ht="13.7" customHeight="1"/>
+    <row r="497" ht="24" customHeight="1"/>
+    <row r="498" ht="24" customHeight="1"/>
+    <row r="499" ht="13.7" customHeight="1"/>
+    <row r="500" ht="13.7" customHeight="1"/>
+    <row r="501" ht="13.7" customHeight="1"/>
+    <row r="502" ht="13.7" customHeight="1"/>
+    <row r="503" ht="13.7" customHeight="1"/>
+    <row r="504" ht="24" customHeight="1"/>
+    <row r="505" ht="13.7" customHeight="1"/>
+    <row r="506" ht="13.7" customHeight="1"/>
+    <row r="507" ht="13.7" customHeight="1"/>
+    <row r="508" ht="13.7" customHeight="1"/>
+    <row r="509" ht="13.7" customHeight="1"/>
+    <row r="510" ht="13.7" customHeight="1"/>
+    <row r="511" ht="13.7" customHeight="1"/>
+    <row r="512" ht="13.7" customHeight="1"/>
+    <row r="513" ht="13.7" customHeight="1"/>
+    <row r="514" ht="13.7" customHeight="1"/>
+    <row r="515" ht="13.7" customHeight="1"/>
+    <row r="516" ht="13.7" customHeight="1"/>
+    <row r="517" ht="13.7" customHeight="1"/>
+    <row r="518" ht="13.7" customHeight="1"/>
+    <row r="519" ht="13.7" customHeight="1"/>
+    <row r="520" ht="13.7" customHeight="1"/>
+    <row r="521" ht="13.7" customHeight="1"/>
+    <row r="522" ht="13.7" customHeight="1"/>
+    <row r="523" ht="13.7" customHeight="1"/>
+    <row r="524" ht="13.7" customHeight="1"/>
+    <row r="525" ht="13.7" customHeight="1"/>
+    <row r="526" ht="13.7" customHeight="1"/>
+    <row r="527" ht="13.7" customHeight="1"/>
+    <row r="528" ht="13.7" customHeight="1"/>
+    <row r="529" ht="13.7" customHeight="1"/>
+    <row r="530" ht="13.7" customHeight="1"/>
+    <row r="531" ht="13.7" customHeight="1"/>
+    <row r="532" ht="13.7" customHeight="1"/>
+    <row r="533" ht="13.7" customHeight="1"/>
+    <row r="534" ht="13.7" customHeight="1"/>
+    <row r="535" ht="13.7" customHeight="1"/>
+    <row r="536" ht="13.7" customHeight="1"/>
+    <row r="537" ht="13.7" customHeight="1"/>
+    <row r="538" ht="13.7" customHeight="1"/>
+    <row r="539" ht="13.7" customHeight="1"/>
+    <row r="540" ht="13.7" customHeight="1"/>
+    <row r="541" ht="13.7" customHeight="1"/>
+    <row r="542" ht="13.7" customHeight="1"/>
+    <row r="543" ht="13.7" customHeight="1"/>
+    <row r="544" ht="13.7" customHeight="1"/>
+    <row r="545" ht="24" customHeight="1"/>
+    <row r="546" ht="24" customHeight="1"/>
+    <row r="547" ht="13.7" customHeight="1"/>
+    <row r="548" ht="13.7" customHeight="1"/>
+    <row r="549" ht="13.7" customHeight="1"/>
+    <row r="550" ht="13.7" customHeight="1"/>
+    <row r="551" ht="13.7" customHeight="1"/>
+    <row r="552" ht="13.7" customHeight="1"/>
+    <row r="553" ht="13.7" customHeight="1"/>
+    <row r="554" ht="13.7" customHeight="1"/>
+    <row r="555" ht="13.7" customHeight="1"/>
+    <row r="556" ht="13.7" customHeight="1"/>
+    <row r="557" ht="24" customHeight="1"/>
+    <row r="558" ht="13.7" customHeight="1"/>
+    <row r="559" ht="13.7" customHeight="1"/>
+    <row r="560" ht="35.1" customHeight="1"/>
+    <row r="561" ht="13.7" customHeight="1"/>
+    <row r="562" ht="13.7" customHeight="1"/>
+    <row r="563" ht="13.7" customHeight="1"/>
+    <row r="564" ht="24" customHeight="1"/>
+    <row r="565" ht="13.7" customHeight="1"/>
+    <row r="566" ht="13.7" customHeight="1"/>
+    <row r="567" ht="13.7" customHeight="1"/>
+    <row r="568" ht="24" customHeight="1"/>
+    <row r="569" ht="24" customHeight="1"/>
+    <row r="570" ht="24" customHeight="1"/>
+    <row r="571" ht="13.7" customHeight="1"/>
+    <row r="572" ht="13.7" customHeight="1"/>
+    <row r="573" ht="13.7" customHeight="1"/>
+    <row r="574" ht="13.7" customHeight="1"/>
+    <row r="575" ht="13.7" customHeight="1"/>
+    <row r="576" ht="13.7" customHeight="1"/>
+    <row r="577" ht="13.7" customHeight="1"/>
+    <row r="578" ht="13.7" customHeight="1"/>
+    <row r="579" ht="13.7" customHeight="1"/>
+    <row r="580" ht="13.7" customHeight="1"/>
+    <row r="581" ht="13.7" customHeight="1"/>
+    <row r="582" ht="13.7" customHeight="1"/>
+    <row r="583" ht="24" customHeight="1"/>
+    <row r="584" ht="13.7" customHeight="1"/>
+    <row r="585" ht="13.7" customHeight="1"/>
+    <row r="586" ht="13.7" customHeight="1"/>
+    <row r="587" ht="13.7" customHeight="1"/>
+    <row r="588" ht="13.7" customHeight="1"/>
+    <row r="589" ht="13.7" customHeight="1"/>
+    <row r="590" ht="13.7" customHeight="1"/>
+    <row r="591" ht="13.7" customHeight="1"/>
+    <row r="592" ht="13.7" customHeight="1"/>
+    <row r="593" ht="13.7" customHeight="1"/>
+    <row r="594" ht="13.7" customHeight="1"/>
+    <row r="595" ht="13.7" customHeight="1"/>
+    <row r="596" ht="13.7" customHeight="1"/>
+    <row r="597" ht="13.7" customHeight="1"/>
+    <row r="598" ht="13.7" customHeight="1"/>
+    <row r="599" ht="13.7" customHeight="1"/>
+    <row r="600" ht="13.7" customHeight="1"/>
+    <row r="601" ht="13.7" customHeight="1"/>
+    <row r="602" ht="13.7" customHeight="1"/>
+    <row r="603" ht="13.7" customHeight="1"/>
+    <row r="604" ht="13.7" customHeight="1"/>
+    <row r="605" ht="13.7" customHeight="1"/>
+    <row r="606" ht="13.7" customHeight="1"/>
+    <row r="607" ht="13.7" customHeight="1"/>
+    <row r="608" ht="13.7" customHeight="1"/>
+    <row r="609" ht="13.7" customHeight="1"/>
+    <row r="610" ht="13.7" customHeight="1"/>
+    <row r="611" ht="13.7" customHeight="1"/>
+    <row r="612" ht="13.7" customHeight="1"/>
+    <row r="613" ht="13.7" customHeight="1"/>
+    <row r="614" ht="13.7" customHeight="1"/>
+    <row r="615" ht="13.7" customHeight="1"/>
+    <row r="616" ht="13.7" customHeight="1"/>
+    <row r="617" ht="13.7" customHeight="1"/>
+    <row r="618" ht="13.7" customHeight="1"/>
+    <row r="619" ht="13.7" customHeight="1"/>
+    <row r="620" ht="13.7" customHeight="1"/>
+    <row r="621" ht="13.7" customHeight="1"/>
+    <row r="622" ht="13.7" customHeight="1"/>
+    <row r="623" ht="13.7" customHeight="1"/>
+    <row r="624" ht="13.7" customHeight="1"/>
+    <row r="625" ht="13.7" customHeight="1"/>
+    <row r="626" ht="13.7" customHeight="1"/>
+    <row r="627" ht="13.7" customHeight="1"/>
+    <row r="628" ht="13.7" customHeight="1"/>
+    <row r="629" ht="13.7" customHeight="1"/>
+    <row r="630" ht="13.7" customHeight="1"/>
+    <row r="631" ht="13.7" customHeight="1"/>
+    <row r="632" ht="13.7" customHeight="1"/>
+    <row r="633" ht="13.7" customHeight="1"/>
+    <row r="634" ht="13.7" customHeight="1"/>
+    <row r="635" ht="13.7" customHeight="1"/>
+    <row r="636" ht="13.7" customHeight="1"/>
+    <row r="637" ht="13.7" customHeight="1"/>
+    <row r="638" ht="13.7" customHeight="1"/>
+    <row r="639" ht="13.7" customHeight="1"/>
+    <row r="640" ht="13.7" customHeight="1"/>
+    <row r="641" ht="13.7" customHeight="1"/>
+    <row r="642" ht="13.7" customHeight="1"/>
+    <row r="643" ht="13.7" customHeight="1"/>
+    <row r="644" ht="13.7" customHeight="1"/>
+    <row r="645" ht="13.7" customHeight="1"/>
+    <row r="646" ht="13.7" customHeight="1"/>
+    <row r="647" ht="13.7" customHeight="1"/>
+    <row r="648" ht="13.7" customHeight="1"/>
+    <row r="649" ht="13.7" customHeight="1"/>
+    <row r="650" ht="13.7" customHeight="1"/>
+    <row r="651" ht="13.7" customHeight="1"/>
+    <row r="652" ht="13.7" customHeight="1"/>
+    <row r="653" ht="13.7" customHeight="1"/>
+    <row r="654" ht="13.7" customHeight="1"/>
+    <row r="655" ht="13.7" customHeight="1"/>
+    <row r="656" ht="13.7" customHeight="1"/>
+    <row r="657" ht="13.7" customHeight="1"/>
+    <row r="658" ht="13.7" customHeight="1"/>
+    <row r="659" ht="13.7" customHeight="1"/>
+    <row r="660" ht="13.7" customHeight="1"/>
+    <row r="661" ht="13.7" customHeight="1"/>
+    <row r="662" ht="13.7" customHeight="1"/>
+    <row r="663" ht="13.7" customHeight="1"/>
+    <row r="664" ht="13.7" customHeight="1"/>
+    <row r="665" ht="13.7" customHeight="1"/>
+    <row r="666" ht="13.7" customHeight="1"/>
+    <row r="667" ht="13.7" customHeight="1"/>
+    <row r="668" ht="13.7" customHeight="1"/>
+    <row r="669" ht="13.7" customHeight="1"/>
+    <row r="670" ht="24" customHeight="1"/>
+    <row r="671" ht="13.7" customHeight="1"/>
+    <row r="672" ht="13.7" customHeight="1"/>
+    <row r="673" ht="13.7" customHeight="1"/>
+    <row r="674" ht="13.7" customHeight="1"/>
+    <row r="675" ht="13.7" customHeight="1"/>
+    <row r="676" ht="13.7" customHeight="1"/>
+    <row r="677" ht="13.7" customHeight="1"/>
+    <row r="678" ht="13.7" customHeight="1"/>
+    <row r="679" ht="13.7" customHeight="1"/>
+    <row r="680" ht="13.7" customHeight="1"/>
+    <row r="681" ht="13.7" customHeight="1"/>
+    <row r="682" ht="13.7" customHeight="1"/>
+    <row r="683" ht="24" customHeight="1"/>
+    <row r="684" ht="13.7" customHeight="1"/>
+    <row r="685" ht="13.7" customHeight="1"/>
+    <row r="686" ht="13.7" customHeight="1"/>
+    <row r="687" ht="13.7" customHeight="1"/>
+    <row r="688" ht="13.7" customHeight="1"/>
+    <row r="689" ht="13.7" customHeight="1"/>
+    <row r="690" ht="13.7" customHeight="1"/>
+    <row r="691" ht="13.7" customHeight="1"/>
+    <row r="692" ht="13.7" customHeight="1"/>
+    <row r="693" ht="13.7" customHeight="1"/>
+    <row r="694" ht="13.7" customHeight="1"/>
+    <row r="695" ht="13.7" customHeight="1"/>
+    <row r="696" ht="13.7" customHeight="1"/>
+    <row r="697" ht="13.7" customHeight="1"/>
+    <row r="698" ht="24" customHeight="1"/>
+    <row r="699" ht="24" customHeight="1"/>
+    <row r="700" ht="13.7" customHeight="1"/>
+    <row r="701" ht="13.7" customHeight="1"/>
+    <row r="702" ht="13.7" customHeight="1"/>
+    <row r="703" ht="24" customHeight="1"/>
+    <row r="704" ht="24" customHeight="1"/>
+    <row r="705" ht="13.7" customHeight="1"/>
+    <row r="706" ht="24" customHeight="1"/>
+    <row r="707" ht="24" customHeight="1"/>
+    <row r="708" ht="13.7" customHeight="1"/>
+    <row r="709" ht="13.7" customHeight="1"/>
+    <row r="710" ht="24" customHeight="1"/>
+    <row r="711" ht="35.1" customHeight="1"/>
+    <row r="712" ht="35.1" customHeight="1"/>
+    <row r="713" ht="35.1" customHeight="1"/>
+    <row r="714" ht="35.1" customHeight="1"/>
+    <row r="715" ht="24" customHeight="1"/>
+    <row r="716" ht="24" customHeight="1"/>
+    <row r="717" ht="35.1" customHeight="1"/>
+    <row r="718" ht="35.1" customHeight="1"/>
+    <row r="719" ht="35.1" customHeight="1"/>
+    <row r="720" ht="35.1" customHeight="1"/>
+    <row r="721" ht="24" customHeight="1"/>
+    <row r="722" ht="24" customHeight="1"/>
+    <row r="723" ht="24" customHeight="1"/>
+    <row r="724" ht="24" customHeight="1"/>
+    <row r="725" ht="35.1" customHeight="1"/>
+    <row r="726" ht="13.7" customHeight="1"/>
+    <row r="727" ht="13.7" customHeight="1"/>
+    <row r="728" ht="13.7" customHeight="1"/>
+    <row r="729" ht="13.7" customHeight="1"/>
+    <row r="730" ht="24" customHeight="1"/>
+    <row r="731" ht="13.7" customHeight="1"/>
+    <row r="732" ht="13.7" customHeight="1"/>
+    <row r="733" ht="13.7" customHeight="1"/>
+    <row r="734" ht="13.7" customHeight="1"/>
+    <row r="735" ht="13.7" customHeight="1"/>
+    <row r="736" ht="13.7" customHeight="1"/>
+    <row r="737" ht="13.7" customHeight="1"/>
+    <row r="738" ht="13.7" customHeight="1"/>
+    <row r="739" ht="13.7" customHeight="1"/>
+    <row r="740" ht="13.7" customHeight="1"/>
+    <row r="741" ht="13.7" customHeight="1"/>
+    <row r="742" ht="13.7" customHeight="1"/>
+    <row r="743" ht="13.7" customHeight="1"/>
+    <row r="744" ht="13.7" customHeight="1"/>
+    <row r="745" ht="13.7" customHeight="1"/>
+    <row r="746" ht="13.7" customHeight="1"/>
+    <row r="747" ht="13.7" customHeight="1"/>
+    <row r="748" ht="13.7" customHeight="1"/>
+    <row r="749" ht="13.7" customHeight="1"/>
+    <row r="750" ht="13.7" customHeight="1"/>
+    <row r="751" ht="13.7" customHeight="1"/>
+    <row r="752" ht="13.7" customHeight="1"/>
+    <row r="753" ht="13.7" customHeight="1"/>
+    <row r="754" ht="13.7" customHeight="1"/>
+    <row r="755" ht="13.7" customHeight="1"/>
+    <row r="756" ht="13.7" customHeight="1"/>
+    <row r="757" ht="13.7" customHeight="1"/>
+    <row r="758" ht="13.7" customHeight="1"/>
+    <row r="759" ht="13.7" customHeight="1"/>
+    <row r="760" ht="24" customHeight="1"/>
+    <row r="761" ht="13.7" customHeight="1"/>
+    <row r="762" ht="13.7" customHeight="1"/>
+    <row r="763" ht="13.7" customHeight="1"/>
+    <row r="764" ht="13.7" customHeight="1"/>
+    <row r="765" ht="13.7" customHeight="1"/>
+    <row r="766" ht="13.7" customHeight="1"/>
+    <row r="767" ht="13.7" customHeight="1"/>
+    <row r="768" ht="13.7" customHeight="1"/>
+    <row r="769" ht="13.7" customHeight="1"/>
+    <row r="770" ht="13.7" customHeight="1"/>
+    <row r="771" ht="13.7" customHeight="1"/>
+    <row r="772" ht="13.7" customHeight="1"/>
+    <row r="773" ht="13.7" customHeight="1"/>
+    <row r="774" ht="13.7" customHeight="1"/>
+    <row r="775" ht="13.7" customHeight="1"/>
+    <row r="776" ht="13.7" customHeight="1"/>
+    <row r="777" ht="13.7" customHeight="1"/>
+    <row r="778" ht="13.7" customHeight="1"/>
+    <row r="779" ht="13.7" customHeight="1"/>
+    <row r="780" ht="24" customHeight="1"/>
+    <row r="781" ht="13.7" customHeight="1"/>
+    <row r="782" ht="13.7" customHeight="1"/>
+    <row r="783" ht="13.7" customHeight="1"/>
+    <row r="784" ht="13.7" customHeight="1"/>
+    <row r="785" ht="13.7" customHeight="1"/>
+    <row r="786" ht="13.7" customHeight="1"/>
+    <row r="787" ht="13.7" customHeight="1"/>
+    <row r="788" ht="13.7" customHeight="1"/>
+    <row r="789" ht="13.7" customHeight="1"/>
+    <row r="790" ht="13.7" customHeight="1"/>
+    <row r="791" ht="13.7" customHeight="1"/>
+    <row r="792" ht="13.7" customHeight="1"/>
+    <row r="793" ht="13.7" customHeight="1"/>
+    <row r="794" ht="13.7" customHeight="1"/>
+    <row r="795" ht="13.7" customHeight="1"/>
+    <row r="796" ht="13.7" customHeight="1"/>
+    <row r="797" ht="13.7" customHeight="1"/>
+    <row r="798" ht="13.7" customHeight="1"/>
+    <row r="799" ht="13.7" customHeight="1"/>
+    <row r="800" ht="13.7" customHeight="1"/>
+    <row r="801" ht="13.7" customHeight="1"/>
+    <row r="802" ht="13.7" customHeight="1"/>
+    <row r="803" ht="13.7" customHeight="1"/>
+    <row r="804" ht="13.7" customHeight="1"/>
+    <row r="805" ht="13.7" customHeight="1"/>
+    <row r="806" ht="13.7" customHeight="1"/>
+    <row r="807" ht="13.7" customHeight="1"/>
+    <row r="808" ht="13.7" customHeight="1"/>
+    <row r="809" ht="13.7" customHeight="1"/>
+    <row r="810" ht="13.7" customHeight="1"/>
+    <row r="811" ht="13.7" customHeight="1"/>
+    <row r="812" ht="13.7" customHeight="1"/>
+    <row r="813" ht="13.7" customHeight="1"/>
+    <row r="814" ht="13.7" customHeight="1"/>
+    <row r="815" ht="13.7" customHeight="1"/>
+    <row r="816" ht="24" customHeight="1"/>
+    <row r="817" ht="24" customHeight="1"/>
+    <row r="818" ht="24" customHeight="1"/>
+    <row r="819" ht="24" customHeight="1"/>
+    <row r="820" ht="13.7" customHeight="1"/>
+    <row r="821" ht="13.7" customHeight="1"/>
+    <row r="822" ht="13.7" customHeight="1"/>
+    <row r="823" ht="13.7" customHeight="1"/>
+    <row r="824" ht="13.7" customHeight="1"/>
+    <row r="825" ht="13.7" customHeight="1"/>
+    <row r="826" ht="13.7" customHeight="1"/>
+    <row r="827" ht="13.7" customHeight="1"/>
+    <row r="828" ht="13.7" customHeight="1"/>
+    <row r="829" ht="13.7" customHeight="1"/>
+    <row r="830" ht="13.7" customHeight="1"/>
+    <row r="831" ht="13.7" customHeight="1"/>
+    <row r="832" ht="13.7" customHeight="1"/>
+    <row r="833" ht="13.7" customHeight="1"/>
+    <row r="834" ht="13.7" customHeight="1"/>
+    <row r="835" ht="13.7" customHeight="1"/>
+    <row r="836" ht="13.7" customHeight="1"/>
+    <row r="837" ht="13.7" customHeight="1"/>
+    <row r="838" ht="24" customHeight="1"/>
+    <row r="839" ht="24" customHeight="1"/>
+    <row r="840" ht="24" customHeight="1"/>
+    <row r="841" ht="13.7" customHeight="1"/>
+    <row r="842" ht="13.7" customHeight="1"/>
+    <row r="843" ht="24" customHeight="1"/>
+    <row r="844" ht="13.7" customHeight="1"/>
+    <row r="845" ht="13.7" customHeight="1"/>
+    <row r="846" ht="13.7" customHeight="1"/>
+    <row r="847" ht="13.7" customHeight="1"/>
+    <row r="848" ht="13.7" customHeight="1"/>
+    <row r="849" ht="13.7" customHeight="1"/>
+    <row r="850" ht="13.7" customHeight="1"/>
+    <row r="851" ht="13.7" customHeight="1"/>
+    <row r="852" ht="13.7" customHeight="1"/>
+    <row r="853" ht="13.7" customHeight="1"/>
+    <row r="854" ht="13.7" customHeight="1"/>
+    <row r="855" ht="13.7" customHeight="1"/>
+    <row r="856" ht="13.7" customHeight="1"/>
+    <row r="857" ht="13.7" customHeight="1"/>
+    <row r="858" ht="13.7" customHeight="1"/>
+    <row r="859" ht="13.7" customHeight="1"/>
+    <row r="860" ht="13.7" customHeight="1"/>
+    <row r="861" ht="24" customHeight="1"/>
+    <row r="862" ht="24" customHeight="1"/>
+    <row r="863" ht="13.7" customHeight="1"/>
+    <row r="864" ht="13.7" customHeight="1"/>
+    <row r="865" ht="13.7" customHeight="1"/>
+    <row r="866" ht="13.7" customHeight="1"/>
+    <row r="867" ht="13.7" customHeight="1"/>
+    <row r="868" ht="13.7" customHeight="1"/>
+    <row r="869" ht="13.7" customHeight="1"/>
+    <row r="870" ht="13.7" customHeight="1"/>
+    <row r="871" ht="13.7" customHeight="1"/>
+    <row r="872" ht="13.7" customHeight="1"/>
+    <row r="873" ht="13.7" customHeight="1"/>
+    <row r="874" ht="13.7" customHeight="1"/>
+    <row r="875" ht="13.7" customHeight="1"/>
+    <row r="876" ht="13.7" customHeight="1"/>
+    <row r="877" ht="13.7" customHeight="1"/>
+    <row r="878" ht="13.7" customHeight="1"/>
+    <row r="879" ht="13.7" customHeight="1"/>
+    <row r="880" ht="13.7" customHeight="1"/>
+    <row r="881" ht="24" customHeight="1"/>
+    <row r="882" ht="35.1" customHeight="1"/>
+    <row r="883" ht="24" customHeight="1"/>
+    <row r="884" ht="13.7" customHeight="1"/>
+    <row r="885" ht="13.7" customHeight="1"/>
+    <row r="886" ht="13.7" customHeight="1"/>
+    <row r="887" ht="13.7" customHeight="1"/>
+    <row r="888" ht="13.7" customHeight="1"/>
+    <row r="889" ht="13.7" customHeight="1"/>
+    <row r="890" ht="13.7" customHeight="1"/>
+    <row r="891" ht="13.7" customHeight="1"/>
+    <row r="892" ht="13.7" customHeight="1"/>
+    <row r="893" ht="13.7" customHeight="1"/>
+    <row r="894" ht="13.7" customHeight="1"/>
+    <row r="895" ht="13.7" customHeight="1"/>
+    <row r="896" ht="13.7" customHeight="1"/>
+    <row r="897" ht="13.7" customHeight="1"/>
+    <row r="898" ht="13.7" customHeight="1"/>
+    <row r="899" ht="13.7" customHeight="1"/>
+    <row r="900" ht="13.7" customHeight="1"/>
+    <row r="901" ht="13.7" customHeight="1"/>
+    <row r="902" ht="13.7" customHeight="1"/>
+    <row r="903" ht="13.7" customHeight="1"/>
+    <row r="904" ht="13.7" customHeight="1"/>
+    <row r="905" ht="13.7" customHeight="1"/>
+    <row r="906" ht="13.7" customHeight="1"/>
+    <row r="907" ht="13.7" customHeight="1"/>
+    <row r="908" ht="13.7" customHeight="1"/>
+    <row r="909" ht="13.7" customHeight="1"/>
+    <row r="910" ht="13.7" customHeight="1"/>
+    <row r="911" ht="13.7" customHeight="1"/>
+    <row r="912" ht="13.7" customHeight="1"/>
+    <row r="913" ht="13.7" customHeight="1"/>
+    <row r="914" ht="35.1" customHeight="1"/>
+    <row r="915" ht="13.7" customHeight="1"/>
+    <row r="916" ht="13.7" customHeight="1"/>
+    <row r="917" ht="13.7" customHeight="1"/>
+    <row r="918" ht="13.7" customHeight="1"/>
+    <row r="919" ht="13.7" customHeight="1"/>
+    <row r="920" ht="13.7" customHeight="1"/>
+    <row r="921" ht="24" customHeight="1"/>
+    <row r="922" ht="13.7" customHeight="1"/>
+    <row r="923" ht="13.7" customHeight="1"/>
+    <row r="924" ht="13.7" customHeight="1"/>
+    <row r="925" ht="13.7" customHeight="1"/>
+    <row r="926" ht="13.7" customHeight="1"/>
+    <row r="927" ht="13.7" customHeight="1"/>
+    <row r="928" ht="13.7" customHeight="1"/>
+    <row r="929" ht="13.7" customHeight="1"/>
+    <row r="930" ht="13.7" customHeight="1"/>
+    <row r="931" ht="13.7" customHeight="1"/>
+    <row r="932" ht="13.7" customHeight="1"/>
+    <row r="933" ht="13.7" customHeight="1"/>
+    <row r="934" ht="13.7" customHeight="1"/>
+    <row r="935" ht="13.7" customHeight="1"/>
+    <row r="936" ht="13.7" customHeight="1"/>
+    <row r="937" ht="13.7" customHeight="1"/>
+    <row r="938" ht="13.7" customHeight="1"/>
+    <row r="939" ht="13.7" customHeight="1"/>
+    <row r="940" ht="13.7" customHeight="1"/>
+    <row r="941" ht="13.7" customHeight="1"/>
+    <row r="942" ht="13.7" customHeight="1"/>
+    <row r="943" ht="13.7" customHeight="1"/>
+    <row r="944" ht="13.7" customHeight="1"/>
+    <row r="945" ht="13.7" customHeight="1"/>
+    <row r="946" ht="13.7" customHeight="1"/>
+    <row r="947" ht="13.7" customHeight="1"/>
+    <row r="948" ht="13.7" customHeight="1"/>
+    <row r="949" ht="13.7" customHeight="1"/>
+    <row r="950" ht="13.7" customHeight="1"/>
+    <row r="951" ht="13.7" customHeight="1"/>
+    <row r="952" ht="13.7" customHeight="1"/>
+    <row r="953" ht="13.7" customHeight="1"/>
+    <row r="954" ht="13.7" customHeight="1"/>
+    <row r="955" ht="13.7" customHeight="1"/>
+    <row r="956" ht="13.7" customHeight="1"/>
+    <row r="957" ht="13.7" customHeight="1"/>
+    <row r="958" ht="13.7" customHeight="1"/>
+    <row r="959" ht="13.7" customHeight="1"/>
+    <row r="960" ht="13.7" customHeight="1"/>
+    <row r="961" ht="13.7" customHeight="1"/>
+    <row r="962" ht="13.7" customHeight="1"/>
+    <row r="963" ht="13.7" customHeight="1"/>
+    <row r="964" ht="13.7" customHeight="1"/>
+    <row r="965" ht="13.7" customHeight="1"/>
+    <row r="966" ht="13.7" customHeight="1"/>
+    <row r="967" ht="13.7" customHeight="1"/>
+    <row r="968" ht="13.7" customHeight="1"/>
+    <row r="969" ht="13.7" customHeight="1"/>
+    <row r="970" ht="13.7" customHeight="1"/>
+    <row r="971" ht="13.7" customHeight="1"/>
+    <row r="972" ht="35.1" customHeight="1"/>
+    <row r="973" ht="35.1" customHeight="1"/>
+    <row r="974" ht="13.7" customHeight="1"/>
+    <row r="975" ht="13.7" customHeight="1"/>
+    <row r="976" ht="35.1" customHeight="1"/>
+    <row r="977" ht="24" customHeight="1"/>
+    <row r="978" ht="24" customHeight="1"/>
+    <row r="979" ht="13.7" customHeight="1"/>
+    <row r="980" ht="13.7" customHeight="1"/>
+    <row r="981" ht="13.7" customHeight="1"/>
+    <row r="982" ht="13.7" customHeight="1"/>
+    <row r="983" ht="35.1" customHeight="1"/>
+    <row r="984" ht="13.7" customHeight="1"/>
+    <row r="985" ht="45.75" customHeight="1"/>
+    <row r="986" ht="13.7" customHeight="1"/>
+    <row r="987" ht="13.7" customHeight="1"/>
+    <row r="988" ht="13.7" customHeight="1"/>
+    <row r="989" ht="13.7" customHeight="1"/>
+    <row r="990" ht="13.7" customHeight="1"/>
+    <row r="991" ht="24" customHeight="1"/>
+    <row r="992" ht="13.7" customHeight="1"/>
+    <row r="993" ht="13.7" customHeight="1"/>
+    <row r="994" ht="35.1" customHeight="1"/>
+    <row r="995" ht="24" customHeight="1"/>
+    <row r="996" ht="13.7" customHeight="1"/>
+    <row r="997" ht="24" customHeight="1"/>
+    <row r="998" ht="24" customHeight="1"/>
+    <row r="999" ht="13.7" customHeight="1"/>
+    <row r="1000" ht="13.7" customHeight="1"/>
+    <row r="1001" ht="13.7" customHeight="1"/>
+    <row r="1002" ht="13.7" customHeight="1"/>
+    <row r="1003" ht="13.7" customHeight="1"/>
+    <row r="1004" ht="24" customHeight="1"/>
+    <row r="1005" ht="24" customHeight="1"/>
+    <row r="1006" ht="24" customHeight="1"/>
+    <row r="1007" ht="13.7" customHeight="1"/>
+    <row r="1008" ht="24" customHeight="1"/>
+    <row r="1009" ht="13.7" customHeight="1"/>
+    <row r="1010" ht="24" customHeight="1"/>
+    <row r="1011" ht="13.7" customHeight="1"/>
+    <row r="1012" ht="13.7" customHeight="1"/>
+    <row r="1013" ht="24" customHeight="1"/>
+    <row r="1014" ht="24" customHeight="1"/>
+    <row r="1015" ht="13.7" customHeight="1"/>
+    <row r="1016" ht="24" customHeight="1"/>
+    <row r="1017" ht="24" customHeight="1"/>
+    <row r="1018" ht="24" customHeight="1"/>
+    <row r="1019" ht="24" customHeight="1"/>
+    <row r="1020" ht="24" customHeight="1"/>
+    <row r="1021" ht="24" customHeight="1"/>
+    <row r="1022" ht="13.7" customHeight="1"/>
+    <row r="1023" ht="13.7" customHeight="1"/>
+    <row r="1024" ht="13.7" customHeight="1"/>
+    <row r="1025" ht="24" customHeight="1"/>
+    <row r="1026" ht="13.7" customHeight="1"/>
+    <row r="1027" ht="35.1" customHeight="1"/>
+    <row r="1028" ht="24" customHeight="1"/>
+    <row r="1029" ht="24" customHeight="1"/>
+    <row r="1030" ht="13.7" customHeight="1"/>
+    <row r="1031" ht="24" customHeight="1"/>
+    <row r="1032" ht="24" customHeight="1"/>
+    <row r="1033" ht="13.7" customHeight="1"/>
+    <row r="1034" ht="13.7" customHeight="1"/>
+    <row r="1035" ht="24" customHeight="1"/>
+    <row r="1036" ht="13.7" customHeight="1"/>
+    <row r="1037" ht="24" customHeight="1"/>
+    <row r="1038" ht="24" customHeight="1"/>
+    <row r="1039" ht="13.7" customHeight="1"/>
+    <row r="1040" ht="13.7" customHeight="1"/>
+    <row r="1041" ht="24" customHeight="1"/>
+    <row r="1042" ht="13.7" customHeight="1"/>
+    <row r="1043" ht="24" customHeight="1"/>
+    <row r="1044" ht="24" customHeight="1"/>
+    <row r="1045" ht="24" customHeight="1"/>
+    <row r="1046" ht="24" customHeight="1"/>
+    <row r="1047" ht="35.1" customHeight="1"/>
+    <row r="1048" ht="35.1" customHeight="1"/>
+    <row r="1049" ht="24" customHeight="1"/>
+    <row r="1050" ht="24" customHeight="1"/>
+    <row r="1051" ht="35.1" customHeight="1"/>
+    <row r="1052" ht="35.1" customHeight="1"/>
+    <row r="1053" ht="24" customHeight="1"/>
+    <row r="1054" ht="24" customHeight="1"/>
+    <row r="1055" ht="24" customHeight="1"/>
+    <row r="1056" ht="24" customHeight="1"/>
+    <row r="1057" ht="35.1" customHeight="1"/>
+    <row r="1058" ht="24" customHeight="1"/>
+    <row r="1059" ht="24" customHeight="1"/>
+    <row r="1060" ht="24" customHeight="1"/>
+    <row r="1061" ht="35.1" customHeight="1"/>
+    <row r="1062" ht="24" customHeight="1"/>
+    <row r="1063" ht="35.1" customHeight="1"/>
+    <row r="1064" ht="24" customHeight="1"/>
+    <row r="1065" ht="24" customHeight="1"/>
+    <row r="1066" ht="35.1" customHeight="1"/>
+    <row r="1067" ht="24" customHeight="1"/>
+    <row r="1068" ht="24" customHeight="1"/>
+    <row r="1069" ht="24" customHeight="1"/>
+    <row r="1070" ht="13.7" customHeight="1"/>
+    <row r="1071" ht="24" customHeight="1"/>
+    <row r="1072" ht="13.7" customHeight="1"/>
+    <row r="1073" ht="13.7" customHeight="1"/>
+    <row r="1074" ht="13.7" customHeight="1"/>
+    <row r="1075" ht="35.1" customHeight="1"/>
+    <row r="1076" ht="35.1" customHeight="1"/>
+    <row r="1077" ht="45.75" customHeight="1"/>
+    <row r="1078" ht="13.7" customHeight="1"/>
+    <row r="1079" ht="13.7" customHeight="1"/>
+    <row r="1080" ht="13.7" customHeight="1"/>
+    <row r="1081" ht="13.7" customHeight="1"/>
+    <row r="1082" ht="13.7" customHeight="1"/>
+    <row r="1083" ht="90" customHeight="1"/>
+    <row r="1084" ht="24" customHeight="1"/>
+    <row r="1085" ht="24" customHeight="1"/>
+    <row r="1086" ht="13.7" customHeight="1"/>
+    <row r="1087" ht="13.7" customHeight="1"/>
+    <row r="1088" ht="24" customHeight="1"/>
+    <row r="1089" ht="13.7" customHeight="1"/>
+    <row r="1090" ht="13.7" customHeight="1"/>
+    <row r="1091" ht="13.7" customHeight="1"/>
+    <row r="1092" ht="13.7" customHeight="1"/>
+    <row r="1093" ht="13.7" customHeight="1"/>
+    <row r="1094" ht="13.7" customHeight="1"/>
+    <row r="1095" ht="13.7" customHeight="1"/>
+    <row r="1096" ht="13.7" customHeight="1"/>
+    <row r="1097" ht="13.7" customHeight="1"/>
+    <row r="1098" ht="13.7" customHeight="1"/>
+    <row r="1099" ht="13.7" customHeight="1"/>
+    <row r="1100" ht="13.7" customHeight="1"/>
+    <row r="1101" ht="13.7" customHeight="1"/>
+    <row r="1102" ht="13.7" customHeight="1"/>
+    <row r="1103" ht="13.7" customHeight="1"/>
+    <row r="1104" ht="13.7" customHeight="1"/>
+    <row r="1105" ht="13.7" customHeight="1"/>
+    <row r="1106" ht="13.7" customHeight="1"/>
+    <row r="1107" ht="13.7" customHeight="1"/>
+    <row r="1108" ht="13.7" customHeight="1"/>
+    <row r="1109" ht="13.7" customHeight="1"/>
+    <row r="1110" ht="13.7" customHeight="1"/>
+    <row r="1111" ht="13.7" customHeight="1"/>
+    <row r="1112" ht="13.7" customHeight="1"/>
+    <row r="1113" ht="13.7" customHeight="1"/>
+    <row r="1114" ht="13.7" customHeight="1"/>
+    <row r="1115" ht="13.7" customHeight="1"/>
+    <row r="1116" ht="13.7" customHeight="1"/>
+    <row r="1117" ht="13.7" customHeight="1"/>
+    <row r="1118" ht="13.7" customHeight="1"/>
+    <row r="1119" ht="13.7" customHeight="1"/>
+    <row r="1120" ht="35.1" customHeight="1"/>
+    <row r="1121" ht="13.7" customHeight="1"/>
+    <row r="1122" ht="13.7" customHeight="1"/>
+    <row r="1123" ht="13.7" customHeight="1"/>
+    <row r="1124" ht="13.7" customHeight="1"/>
+    <row r="1125" ht="13.7" customHeight="1"/>
+    <row r="1126" ht="13.7" customHeight="1"/>
+    <row r="1127" ht="35.1" customHeight="1"/>
+    <row r="1128" ht="13.7" customHeight="1"/>
+    <row r="1129" ht="24" customHeight="1"/>
+    <row r="1130" ht="13.7" customHeight="1"/>
+    <row r="1131" ht="13.7" customHeight="1"/>
+    <row r="1132" ht="24" customHeight="1"/>
+    <row r="1133" ht="13.7" customHeight="1"/>
+    <row r="1134" ht="13.7" customHeight="1"/>
+    <row r="1135" ht="13.7" customHeight="1"/>
+    <row r="1136" ht="13.7" customHeight="1"/>
+    <row r="1137" ht="35.1" customHeight="1"/>
+    <row r="1138" ht="13.7" customHeight="1"/>
+    <row r="1139" ht="13.7" customHeight="1"/>
+    <row r="1140" ht="13.7" customHeight="1"/>
+    <row r="1141" ht="13.7" customHeight="1"/>
+    <row r="1142" ht="56.85" customHeight="1"/>
+    <row r="1143" ht="13.7" customHeight="1"/>
+    <row r="1144" ht="13.7" customHeight="1"/>
+    <row r="1145" ht="13.7" customHeight="1"/>
+    <row r="1146" ht="13.7" customHeight="1"/>
+    <row r="1147" ht="13.7" customHeight="1"/>
+    <row r="1148" ht="35.1" customHeight="1"/>
+    <row r="1149" ht="24" customHeight="1"/>
+    <row r="1150" ht="13.7" customHeight="1"/>
+    <row r="1151" ht="13.7" customHeight="1"/>
+    <row r="1152" ht="24" customHeight="1"/>
+    <row r="1153" ht="24" customHeight="1"/>
+    <row r="1154" ht="13.7" customHeight="1"/>
+    <row r="1155" ht="13.7" customHeight="1"/>
+    <row r="1156" ht="13.7" customHeight="1"/>
+    <row r="1157" ht="13.7" customHeight="1"/>
+    <row r="1158" ht="13.7" customHeight="1"/>
+    <row r="1159" ht="35.1" customHeight="1"/>
+    <row r="1160" ht="24" customHeight="1"/>
+    <row r="1161" ht="13.7" customHeight="1"/>
+    <row r="1162" ht="13.7" customHeight="1"/>
+    <row r="1163" ht="13.7" customHeight="1"/>
+    <row r="1164" ht="13.7" customHeight="1"/>
+    <row r="1165" ht="13.7" customHeight="1"/>
+    <row r="1166" ht="24" customHeight="1"/>
+    <row r="1167" ht="24" customHeight="1"/>
+    <row r="1168" ht="13.7" customHeight="1"/>
+    <row r="1169" ht="24" customHeight="1"/>
+    <row r="1170" ht="13.7" customHeight="1"/>
+    <row r="1171" ht="24" customHeight="1"/>
+    <row r="1172" ht="13.7" customHeight="1"/>
+    <row r="1173" ht="24" customHeight="1"/>
+    <row r="1174" ht="13.7" customHeight="1"/>
+    <row r="1175" ht="13.7" customHeight="1"/>
+    <row r="1176" ht="13.7" customHeight="1"/>
+    <row r="1177" ht="13.7" customHeight="1"/>
+    <row r="1178" ht="13.7" customHeight="1"/>
+    <row r="1179" ht="13.7" customHeight="1"/>
+    <row r="1180" ht="13.7" customHeight="1"/>
+    <row r="1181" ht="13.7" customHeight="1"/>
+    <row r="1182" ht="13.7" customHeight="1"/>
+    <row r="1183" ht="13.7" customHeight="1"/>
+    <row r="1184" ht="24" customHeight="1"/>
+    <row r="1185" ht="24" customHeight="1"/>
+    <row r="1186" ht="13.7" customHeight="1"/>
+    <row r="1187" ht="35.1" customHeight="1"/>
+    <row r="1188" ht="13.7" customHeight="1"/>
+    <row r="1189" ht="13.7" customHeight="1"/>
+    <row r="1190" ht="13.7" customHeight="1"/>
+    <row r="1191" ht="24" customHeight="1"/>
+    <row r="1192" ht="13.7" customHeight="1"/>
+    <row r="1193" ht="13.7" customHeight="1"/>
+    <row r="1194" ht="13.7" customHeight="1"/>
+    <row r="1195" ht="13.7" customHeight="1"/>
+    <row r="1196" ht="13.7" customHeight="1"/>
+    <row r="1197" ht="13.7" customHeight="1"/>
+    <row r="1198" ht="13.7" customHeight="1"/>
+    <row r="1199" ht="13.7" customHeight="1"/>
+    <row r="1200" ht="13.7" customHeight="1"/>
+    <row r="1201" ht="13.7" customHeight="1"/>
+    <row r="1202" ht="24" customHeight="1"/>
+    <row r="1203" ht="35.1" customHeight="1"/>
+    <row r="1204" ht="35.1" customHeight="1"/>
+    <row r="1205" ht="24" customHeight="1"/>
+    <row r="1206" ht="35.1" customHeight="1"/>
+    <row r="1207" ht="24" customHeight="1"/>
+    <row r="1208" ht="24" customHeight="1"/>
+    <row r="1209" ht="13.7" customHeight="1"/>
+    <row r="1210" ht="13.7" customHeight="1"/>
+    <row r="1211" ht="13.7" customHeight="1"/>
+    <row r="1212" ht="13.7" customHeight="1"/>
+    <row r="1213" ht="35.1" customHeight="1"/>
+    <row r="1214" ht="13.7" customHeight="1"/>
+    <row r="1215" ht="13.7" customHeight="1"/>
+    <row r="1216" ht="24" customHeight="1"/>
+    <row r="1217" ht="13.7" customHeight="1"/>
+    <row r="1218" ht="13.7" customHeight="1"/>
+    <row r="1219" ht="13.7" customHeight="1"/>
+    <row r="1220" ht="13.7" customHeight="1"/>
+    <row r="1221" ht="13.7" customHeight="1"/>
+    <row r="1222" ht="13.7" customHeight="1"/>
+    <row r="1223" ht="13.7" customHeight="1"/>
+    <row r="1224" ht="24" customHeight="1"/>
+    <row r="1225" ht="24" customHeight="1"/>
+    <row r="1226" ht="13.7" customHeight="1"/>
+    <row r="1227" ht="13.7" customHeight="1"/>
+    <row r="1228" ht="13.7" customHeight="1"/>
+    <row r="1229" ht="13.7" customHeight="1"/>
+    <row r="1230" ht="13.7" customHeight="1"/>
+    <row r="1231" ht="13.7" customHeight="1"/>
+    <row r="1232" ht="13.7" customHeight="1"/>
+    <row r="1233" ht="13.7" customHeight="1"/>
+    <row r="1234" ht="13.7" customHeight="1"/>
+    <row r="1235" ht="13.7" customHeight="1"/>
+    <row r="1236" ht="13.7" customHeight="1"/>
+    <row r="1237" ht="13.7" customHeight="1"/>
+    <row r="1238" ht="13.7" customHeight="1"/>
+    <row r="1239" ht="13.7" customHeight="1"/>
+    <row r="1240" ht="13.7" customHeight="1"/>
+    <row r="1241" ht="13.7" customHeight="1"/>
+    <row r="1242" ht="13.7" customHeight="1"/>
+    <row r="1243" ht="35.1" customHeight="1"/>
+    <row r="1244" ht="24" customHeight="1"/>
+    <row r="1245" ht="13.7" customHeight="1"/>
+    <row r="1246" ht="24" customHeight="1"/>
+    <row r="1247" ht="13.7" customHeight="1"/>
+    <row r="1248" ht="24" customHeight="1"/>
+    <row r="1249" ht="13.7" customHeight="1"/>
+    <row r="1250" ht="24" customHeight="1"/>
+    <row r="1251" ht="24" customHeight="1"/>
+    <row r="1252" ht="13.7" customHeight="1"/>
+    <row r="1253" ht="13.7" customHeight="1"/>
+    <row r="1254" ht="13.7" customHeight="1"/>
+    <row r="1255" ht="13.7" customHeight="1"/>
+    <row r="1256" ht="13.7" customHeight="1"/>
+    <row r="1257" ht="13.7" customHeight="1"/>
+    <row r="1258" ht="13.7" customHeight="1"/>
+    <row r="1259" ht="13.7" customHeight="1"/>
+    <row r="1260" ht="13.7" customHeight="1"/>
+    <row r="1261" ht="13.7" customHeight="1"/>
+    <row r="1262" ht="13.7" customHeight="1"/>
+    <row r="1263" ht="13.7" customHeight="1"/>
+    <row r="1264" ht="13.7" customHeight="1"/>
+    <row r="1265" ht="13.7" customHeight="1"/>
+    <row r="1266" ht="13.7" customHeight="1"/>
+    <row r="1267" ht="13.7" customHeight="1"/>
+    <row r="1268" ht="13.7" customHeight="1"/>
+    <row r="1269" ht="13.7" customHeight="1"/>
+    <row r="1270" ht="13.7" customHeight="1"/>
+    <row r="1271" ht="13.7" customHeight="1"/>
+    <row r="1272" ht="13.7" customHeight="1"/>
+    <row r="1273" ht="13.7" customHeight="1"/>
+    <row r="1274" ht="24" customHeight="1"/>
+    <row r="1275" ht="24" customHeight="1"/>
+    <row r="1276" ht="13.7" customHeight="1"/>
+    <row r="1277" ht="13.7" customHeight="1"/>
+    <row r="1278" ht="13.7" customHeight="1"/>
+    <row r="1279" ht="13.7" customHeight="1"/>
+    <row r="1280" ht="24" customHeight="1"/>
+    <row r="1281" ht="13.7" customHeight="1"/>
+    <row r="1282" ht="13.7" customHeight="1"/>
+    <row r="1283" ht="13.7" customHeight="1"/>
+    <row r="1284" ht="13.7" customHeight="1"/>
+    <row r="1285" ht="13.7" customHeight="1"/>
+    <row r="1286" ht="13.7" customHeight="1"/>
+    <row r="1287" ht="13.7" customHeight="1"/>
+    <row r="1288" ht="13.7" customHeight="1"/>
+    <row r="1289" ht="13.7" customHeight="1"/>
+    <row r="1290" ht="13.7" customHeight="1"/>
+    <row r="1291" ht="13.7" customHeight="1"/>
+    <row r="1292" ht="13.7" customHeight="1"/>
+    <row r="1293" ht="24" customHeight="1"/>
+    <row r="1294" ht="13.7" customHeight="1"/>
+    <row r="1295" ht="13.7" customHeight="1"/>
+    <row r="1296" ht="13.7" customHeight="1"/>
+    <row r="1297" ht="13.7" customHeight="1"/>
+    <row r="1298" ht="24" customHeight="1"/>
+    <row r="1299" ht="24" customHeight="1"/>
+    <row r="1300" ht="13.7" customHeight="1"/>
+    <row r="1301" ht="24" customHeight="1"/>
+    <row r="1302" ht="24" customHeight="1"/>
+    <row r="1303" ht="13.7" customHeight="1"/>
+    <row r="1304" ht="24" customHeight="1"/>
+    <row r="1305" ht="13.7" customHeight="1"/>
+    <row r="1306" ht="13.7" customHeight="1"/>
+    <row r="1307" ht="13.7" customHeight="1"/>
+    <row r="1308" ht="13.7" customHeight="1"/>
+    <row r="1309" ht="13.7" customHeight="1"/>
+    <row r="1310" ht="13.7" customHeight="1"/>
+    <row r="1311" ht="13.7" customHeight="1"/>
+    <row r="1312" ht="13.7" customHeight="1"/>
+    <row r="1313" ht="13.7" customHeight="1"/>
+    <row r="1314" ht="13.7" customHeight="1"/>
+    <row r="1315" ht="13.7" customHeight="1"/>
+    <row r="1316" ht="13.7" customHeight="1"/>
+    <row r="1317" ht="13.7" customHeight="1"/>
+    <row r="1318" ht="13.7" customHeight="1"/>
+    <row r="1319" ht="13.7" customHeight="1"/>
+    <row r="1320" ht="13.7" customHeight="1"/>
+    <row r="1321" ht="13.7" customHeight="1"/>
+    <row r="1322" ht="13.7" customHeight="1"/>
+    <row r="1323" ht="13.7" customHeight="1"/>
+    <row r="1324" ht="13.7" customHeight="1"/>
+    <row r="1325" ht="13.7" customHeight="1"/>
+    <row r="1326" ht="13.7" customHeight="1"/>
+    <row r="1327" ht="13.7" customHeight="1"/>
+    <row r="1328" ht="13.7" customHeight="1"/>
+    <row r="1329" ht="13.7" customHeight="1"/>
+    <row r="1330" ht="13.7" customHeight="1"/>
+    <row r="1331" ht="13.7" customHeight="1"/>
+    <row r="1332" ht="13.7" customHeight="1"/>
+    <row r="1333" ht="13.7" customHeight="1"/>
+    <row r="1334" ht="13.7" customHeight="1"/>
+    <row r="1335" ht="13.7" customHeight="1"/>
+    <row r="1336" ht="13.7" customHeight="1"/>
+    <row r="1337" ht="13.7" customHeight="1"/>
+    <row r="1338" ht="13.7" customHeight="1"/>
+    <row r="1339" ht="13.7" customHeight="1"/>
+    <row r="1340" ht="13.7" customHeight="1"/>
+    <row r="1341" ht="13.7" customHeight="1"/>
+    <row r="1342" ht="35.1" customHeight="1"/>
+    <row r="1343" ht="13.7" customHeight="1"/>
+    <row r="1344" ht="13.7" customHeight="1"/>
+    <row r="1345" ht="13.7" customHeight="1"/>
+    <row r="1346" ht="13.7" customHeight="1"/>
+    <row r="1347" ht="13.7" customHeight="1"/>
+    <row r="1348" ht="13.7" customHeight="1"/>
+    <row r="1349" ht="24" customHeight="1"/>
+    <row r="1350" ht="24" customHeight="1"/>
+    <row r="1351" ht="45.75" customHeight="1"/>
+    <row r="1352" ht="13.7" customHeight="1"/>
+    <row r="1353" ht="24" customHeight="1"/>
+    <row r="1354" ht="35.1" customHeight="1"/>
+    <row r="1355" ht="24" customHeight="1"/>
+    <row r="1356" ht="13.7" customHeight="1"/>
+    <row r="1357" ht="13.7" customHeight="1"/>
+    <row r="1358" ht="35.1" customHeight="1"/>
+    <row r="1359" ht="45.75" customHeight="1"/>
+    <row r="1360" ht="13.7" customHeight="1"/>
+    <row r="1361" ht="13.7" customHeight="1"/>
+    <row r="1362" ht="13.7" customHeight="1"/>
+    <row r="1363" ht="13.7" customHeight="1"/>
+    <row r="1364" ht="13.7" customHeight="1"/>
+    <row r="1365" ht="13.7" customHeight="1"/>
+    <row r="1366" ht="13.7" customHeight="1"/>
+    <row r="1367" ht="24" customHeight="1"/>
+    <row r="1368" ht="13.7" customHeight="1"/>
+    <row r="1369" ht="13.7" customHeight="1"/>
+    <row r="1370" ht="13.7" customHeight="1"/>
+    <row r="1371" ht="13.7" customHeight="1"/>
+    <row r="1372" ht="13.7" customHeight="1"/>
+    <row r="1373" ht="13.7" customHeight="1"/>
+    <row r="1374" ht="13.7" customHeight="1"/>
+    <row r="1375" ht="13.7" customHeight="1"/>
+    <row r="1376" ht="13.7" customHeight="1"/>
+    <row r="1377" ht="13.7" customHeight="1"/>
+    <row r="1378" ht="13.7" customHeight="1"/>
+    <row r="1379" ht="13.7" customHeight="1"/>
+    <row r="1380" ht="13.7" customHeight="1"/>
+    <row r="1381" ht="13.7" customHeight="1"/>
+    <row r="1382" ht="24" customHeight="1"/>
+    <row r="1383" ht="13.7" customHeight="1"/>
+    <row r="1384" ht="24" customHeight="1"/>
+    <row r="1385" ht="24" customHeight="1"/>
+    <row r="1386" ht="24" customHeight="1"/>
+    <row r="1387" ht="24" customHeight="1"/>
+    <row r="1388" ht="24" customHeight="1"/>
+    <row r="1389" ht="24" customHeight="1"/>
+    <row r="1390" ht="24" customHeight="1"/>
+    <row r="1391" ht="13.7" customHeight="1"/>
+    <row r="1392" ht="13.7" customHeight="1"/>
+    <row r="1393" ht="13.7" customHeight="1"/>
+    <row r="1394" ht="13.7" customHeight="1"/>
+    <row r="1395" ht="24" customHeight="1"/>
+    <row r="1396" ht="24" customHeight="1"/>
+    <row r="1397" ht="13.7" customHeight="1"/>
+    <row r="1398" ht="24" customHeight="1"/>
+    <row r="1399" ht="24" customHeight="1"/>
+    <row r="1400" ht="24" customHeight="1"/>
+    <row r="1401" ht="24" customHeight="1"/>
+    <row r="1402" ht="24" customHeight="1"/>
+    <row r="1403" ht="24" customHeight="1"/>
+    <row r="1404" ht="24" customHeight="1"/>
+    <row r="1405" ht="13.7" customHeight="1"/>
+    <row r="1406" ht="13.7" customHeight="1"/>
+    <row r="1407" ht="13.7" customHeight="1"/>
+    <row r="1408" ht="13.7" customHeight="1"/>
+    <row r="1409" ht="24" customHeight="1"/>
+    <row r="1410" ht="24" customHeight="1"/>
+    <row r="1411" ht="24" customHeight="1"/>
+    <row r="1412" ht="13.7" customHeight="1"/>
+    <row r="1413" ht="24" customHeight="1"/>
+    <row r="1414" ht="13.7" customHeight="1"/>
+    <row r="1415" ht="13.7" customHeight="1"/>
+    <row r="1416" ht="13.7" customHeight="1"/>
+    <row r="1417" ht="13.7" customHeight="1"/>
+    <row r="1418" ht="13.7" customHeight="1"/>
+    <row r="1419" ht="13.7" customHeight="1"/>
+    <row r="1420" ht="13.7" customHeight="1"/>
+    <row r="1421" ht="13.7" customHeight="1"/>
+    <row r="1422" ht="13.7" customHeight="1"/>
+    <row r="1423" ht="13.7" customHeight="1"/>
+    <row r="1424" ht="13.7" customHeight="1"/>
+    <row r="1425" ht="13.7" customHeight="1"/>
+    <row r="1426" ht="13.7" customHeight="1"/>
+    <row r="1427" ht="13.7" customHeight="1"/>
+    <row r="1428" ht="13.7" customHeight="1"/>
+    <row r="1429" ht="13.7" customHeight="1"/>
+    <row r="1430" ht="13.7" customHeight="1"/>
+    <row r="1431" ht="24" customHeight="1"/>
+    <row r="1432" ht="13.7" customHeight="1"/>
+    <row r="1433" ht="13.7" customHeight="1"/>
+    <row r="1434" ht="13.7" customHeight="1"/>
+    <row r="1435" ht="24" customHeight="1"/>
+    <row r="1436" ht="13.7" customHeight="1"/>
+    <row r="1437" ht="13.7" customHeight="1"/>
+    <row r="1438" ht="24" customHeight="1"/>
+    <row r="1439" ht="13.7" customHeight="1"/>
+    <row r="1440" ht="24" customHeight="1"/>
+    <row r="1441" ht="24" customHeight="1"/>
+    <row r="1442" ht="13.7" customHeight="1"/>
+    <row r="1443" ht="24" customHeight="1"/>
+    <row r="1444" ht="13.7" customHeight="1"/>
+    <row r="1445" ht="13.7" customHeight="1"/>
+    <row r="1446" ht="13.7" customHeight="1"/>
+    <row r="1447" ht="24" customHeight="1"/>
+    <row r="1448" ht="13.7" customHeight="1"/>
+    <row r="1449" ht="13.7" customHeight="1"/>
+    <row r="1450" ht="13.7" customHeight="1"/>
+    <row r="1451" ht="13.7" customHeight="1"/>
+    <row r="1452" ht="13.7" customHeight="1"/>
+    <row r="1453" ht="13.7" customHeight="1"/>
+    <row r="1454" ht="13.7" customHeight="1"/>
+    <row r="1455" ht="13.7" customHeight="1"/>
+    <row r="1456" ht="13.7" customHeight="1"/>
+    <row r="1457" ht="13.7" customHeight="1"/>
+    <row r="1458" ht="13.7" customHeight="1"/>
+    <row r="1459" ht="13.7" customHeight="1"/>
+    <row r="1460" ht="24" customHeight="1"/>
+    <row r="1461" ht="13.7" customHeight="1"/>
+    <row r="1462" ht="13.7" customHeight="1"/>
+    <row r="1463" ht="13.7" customHeight="1"/>
+    <row r="1464" ht="13.7" customHeight="1"/>
+    <row r="1465" ht="13.7" customHeight="1"/>
+    <row r="1466" ht="24" customHeight="1"/>
+    <row r="1467" ht="24" customHeight="1"/>
+    <row r="1468" ht="24" customHeight="1"/>
+    <row r="1469" ht="13.7" customHeight="1"/>
+    <row r="1470" ht="13.7" customHeight="1"/>
+    <row r="1471" ht="13.7" customHeight="1"/>
+    <row r="1472" ht="13.7" customHeight="1"/>
+    <row r="1473" ht="24" customHeight="1"/>
+    <row r="1474" ht="24" customHeight="1"/>
+    <row r="1475" ht="24" customHeight="1"/>
+    <row r="1476" ht="13.7" customHeight="1"/>
+    <row r="1477" ht="24" customHeight="1"/>
+    <row r="1478" ht="24" customHeight="1"/>
+    <row r="1479" ht="24" customHeight="1"/>
+    <row r="1480" ht="24" customHeight="1"/>
+    <row r="1481" ht="24" customHeight="1"/>
+    <row r="1482" ht="24" customHeight="1"/>
+    <row r="1483" ht="35.1" customHeight="1"/>
+    <row r="1484" ht="35.1" customHeight="1"/>
+    <row r="1485" ht="13.7" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
